--- a/Excel/Assignment/assignment.xlsx
+++ b/Excel/Assignment/assignment.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patel\OneDrive\Desktop\data analytics assigment\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2dcf2473134df4d/Desktop/data analytics assigment/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E8975F-FF11-4ECE-8A01-E29E66D21501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="467" documentId="13_ncr:1_{59E8975F-FF11-4ECE-8A01-E29E66D21501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3408C1EB-396D-4679-80BC-2D0E9B15FCD7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1,3,5,6,8,12" sheetId="4" r:id="rId1"/>
     <sheet name="Q-7,9,10,11,13,14,15" sheetId="3" r:id="rId2"/>
-    <sheet name="Q-24 lord data,25" sheetId="8" r:id="rId3"/>
-    <sheet name="Q-24" sheetId="7" r:id="rId4"/>
+    <sheet name="Q-16,19,20,21,22,23" sheetId="9" r:id="rId3"/>
+    <sheet name="Q-17,18" sheetId="10" r:id="rId4"/>
+    <sheet name="Q-24 load data,25" sheetId="8" r:id="rId5"/>
+    <sheet name="Q-24" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Q-24 lord data,25'!$A$1:$E$102</definedName>
+    <definedName name="ExternalData_1" localSheetId="4" hidden="1">'Q-24 load data,25'!$A$1:$E$102</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -494,6 +496,94 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>JAY PATEL</author>
+  </authors>
+  <commentList>
+    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{7C222E7D-8CD1-403D-BFA4-C700804412AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>JAY PATEL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Q - 16 : total 
+revenue for the year.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{015864A8-3746-410F-9D1A-AD8124E65B3C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>JAY PATEL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Q - 16 : total 
+revenue for the year.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{39706E08-E7D7-48EB-9E41-BF639301A292}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>JAY PATEL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Q - 16 : total 
+revenue for the year.
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{CD0DF88E-4916-4F9D-918F-8F3C6DC52127}" keepAlive="1" name="Query - Table1" description="Connection to the 'Table1' query in the workbook." type="5" refreshedVersion="8" background="1" saveData="1">
@@ -503,7 +593,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -525,7 +615,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="428">
   <si>
     <t>STUDENT NAME</t>
   </si>
@@ -1236,13 +1326,657 @@
   </si>
   <si>
     <t>Population 1</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Revenue in $MM</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Client #</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>VIP Account?</t>
+  </si>
+  <si>
+    <t>Total commisions</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Medals Won</t>
+  </si>
+  <si>
+    <t>Michael Phelps</t>
+  </si>
+  <si>
+    <t>Swimming</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Usain Bolt</t>
+  </si>
+  <si>
+    <t>Athletics</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Simone Biles</t>
+  </si>
+  <si>
+    <t>Gymnastics</t>
+  </si>
+  <si>
+    <t>Katarina Witt</t>
+  </si>
+  <si>
+    <t>Figure Skating</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Nadia Comaneci</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Carl Lewis</t>
+  </si>
+  <si>
+    <t>Larisa Latynina</t>
+  </si>
+  <si>
+    <t>USSR</t>
+  </si>
+  <si>
+    <t>Mark Spitz</t>
+  </si>
+  <si>
+    <t>Sonja Henie</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Yelena Isinbayeva</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Exchange Rate</t>
+  </si>
+  <si>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Software Eng</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Data Scientist</t>
+  </si>
+  <si>
+    <t>Accountant</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Lawyer</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>Total Year</t>
+  </si>
+  <si>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>0-19</t>
+  </si>
+  <si>
+    <t>25-49</t>
+  </si>
+  <si>
+    <t>Tel Aviv</t>
+  </si>
+  <si>
+    <t>Region 1</t>
+  </si>
+  <si>
+    <t>Region 2</t>
+  </si>
+  <si>
+    <t>Region 3</t>
+  </si>
+  <si>
+    <t>Region 4</t>
+  </si>
+  <si>
+    <t>Region 5</t>
+  </si>
+  <si>
+    <t>Region 6</t>
+  </si>
+  <si>
+    <t>Region 7</t>
+  </si>
+  <si>
+    <t>Region 8</t>
+  </si>
+  <si>
+    <t>Region 9</t>
+  </si>
+  <si>
+    <t>Region 10</t>
+  </si>
+  <si>
+    <t>Region 11</t>
+  </si>
+  <si>
+    <t>Region 12</t>
+  </si>
+  <si>
+    <t>Region 13</t>
+  </si>
+  <si>
+    <t>Region 14</t>
+  </si>
+  <si>
+    <t>Region 15</t>
+  </si>
+  <si>
+    <t>Region 16</t>
+  </si>
+  <si>
+    <t>Region 17</t>
+  </si>
+  <si>
+    <t>Region 18</t>
+  </si>
+  <si>
+    <t>Region 19</t>
+  </si>
+  <si>
+    <t>Region 20</t>
+  </si>
+  <si>
+    <t>Region 21</t>
+  </si>
+  <si>
+    <t>Region 22</t>
+  </si>
+  <si>
+    <t>Region 23</t>
+  </si>
+  <si>
+    <t>Region 24</t>
+  </si>
+  <si>
+    <t>Region 25</t>
+  </si>
+  <si>
+    <t>Region 26</t>
+  </si>
+  <si>
+    <t>Region 27</t>
+  </si>
+  <si>
+    <t>Region 28</t>
+  </si>
+  <si>
+    <t>Region 29</t>
+  </si>
+  <si>
+    <t>Region 30</t>
+  </si>
+  <si>
+    <t>Region 31</t>
+  </si>
+  <si>
+    <t>Region 32</t>
+  </si>
+  <si>
+    <t>Region 33</t>
+  </si>
+  <si>
+    <t>Region 34</t>
+  </si>
+  <si>
+    <t>Region 35</t>
+  </si>
+  <si>
+    <t>Region 36</t>
+  </si>
+  <si>
+    <t>Region 37</t>
+  </si>
+  <si>
+    <t>Region 38</t>
+  </si>
+  <si>
+    <t>Region 39</t>
+  </si>
+  <si>
+    <t>Region 40</t>
+  </si>
+  <si>
+    <t>Region 41</t>
+  </si>
+  <si>
+    <t>Region 42</t>
+  </si>
+  <si>
+    <t>Region 43</t>
+  </si>
+  <si>
+    <t>Region 44</t>
+  </si>
+  <si>
+    <t>Region 45</t>
+  </si>
+  <si>
+    <t>Region 46</t>
+  </si>
+  <si>
+    <t>Region 47</t>
+  </si>
+  <si>
+    <t>Region 48</t>
+  </si>
+  <si>
+    <t>Region 49</t>
+  </si>
+  <si>
+    <t>Region 50</t>
+  </si>
+  <si>
+    <t>Region 51</t>
+  </si>
+  <si>
+    <t>Region 52</t>
+  </si>
+  <si>
+    <t>Region 53</t>
+  </si>
+  <si>
+    <t>Region 54</t>
+  </si>
+  <si>
+    <t>Region 55</t>
+  </si>
+  <si>
+    <t>Region 56</t>
+  </si>
+  <si>
+    <t>Region 57</t>
+  </si>
+  <si>
+    <t>Region 58</t>
+  </si>
+  <si>
+    <t>Region 59</t>
+  </si>
+  <si>
+    <t>Region 60</t>
+  </si>
+  <si>
+    <t>Region 61</t>
+  </si>
+  <si>
+    <t>Region 62</t>
+  </si>
+  <si>
+    <t>Region 63</t>
+  </si>
+  <si>
+    <t>Region 64</t>
+  </si>
+  <si>
+    <t>Region 65</t>
+  </si>
+  <si>
+    <t>Region 66</t>
+  </si>
+  <si>
+    <t>Region 67</t>
+  </si>
+  <si>
+    <t>Region 68</t>
+  </si>
+  <si>
+    <t>Region 69</t>
+  </si>
+  <si>
+    <t>Region 70</t>
+  </si>
+  <si>
+    <t>Region 71</t>
+  </si>
+  <si>
+    <t>Region 72</t>
+  </si>
+  <si>
+    <t>Region 73</t>
+  </si>
+  <si>
+    <t>Region 74</t>
+  </si>
+  <si>
+    <t>Region 75</t>
+  </si>
+  <si>
+    <t>Region 76</t>
+  </si>
+  <si>
+    <t>Region 77</t>
+  </si>
+  <si>
+    <t>Region 78</t>
+  </si>
+  <si>
+    <t>Region 79</t>
+  </si>
+  <si>
+    <t>Region 80</t>
+  </si>
+  <si>
+    <t>Region 81</t>
+  </si>
+  <si>
+    <t>Region 82</t>
+  </si>
+  <si>
+    <t>Region 83</t>
+  </si>
+  <si>
+    <t>Region 84</t>
+  </si>
+  <si>
+    <t>Region 85</t>
+  </si>
+  <si>
+    <t>Region 86</t>
+  </si>
+  <si>
+    <t>Region 87</t>
+  </si>
+  <si>
+    <t>Region 88</t>
+  </si>
+  <si>
+    <t>Region 89</t>
+  </si>
+  <si>
+    <t>Region 90</t>
+  </si>
+  <si>
+    <t>Q-19 :</t>
+  </si>
+  <si>
+    <t>1.        	What is the total amout of money in VIP Accounts?</t>
+  </si>
+  <si>
+    <t>2.        What is the total amout of money in Non-VIP Accounts?</t>
+  </si>
+  <si>
+    <t>3.        What is the total amount of commisions from accounts that are over $10,000?</t>
+  </si>
+  <si>
+    <t>4.        What is the total amout of money in accounts over $10,000?</t>
+  </si>
+  <si>
+    <t>5.        What is the total amout of money in accounts under $9,500?</t>
+  </si>
+  <si>
+    <t>Q-20 :</t>
+  </si>
+  <si>
+    <t>1.       What is the total number of medals won by athletes from USA?</t>
+  </si>
+  <si>
+    <t>2.      What is the total number of medals won by figure skaters?</t>
+  </si>
+  <si>
+    <t>3.      What is the total number of medals won by both USA and Jamaica? (Hard)</t>
+  </si>
+  <si>
+    <t>Q-22 :</t>
+  </si>
+  <si>
+    <t>1. What is the name of Employee ID 58369?</t>
+  </si>
+  <si>
+    <t>2.  What's the age of Estelle Cormack?</t>
+  </si>
+  <si>
+    <t>Q-23 :</t>
+  </si>
+  <si>
+    <t>1.  Create a VLOOKUP formula to find the occupation of Usain Bolt.</t>
+  </si>
+  <si>
+    <t>2.   Create a VLOOKUP formula to find the age of Carl Lewis.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Q-21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:In the file named VLOOKUP APPROXIMATE MATCH, Retrieve the GBP:USD exchange 
+rate for the following dates using VLOOKUP function, from the table in columns G-H.
+In case there is no exchange rate for a certain date entry, return the the last known 
+rate for that day</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Q-16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  :  The company's CFO asked you to use SUM formula to calculate the total revenue for the year.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Q-17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  : The following table represents daily costs by day for the first quarter of 2015
+Calculate the total costs at the bottom of the table. Hint: to save time, use sum shortcuts.</t>
+    </r>
+  </si>
+  <si>
+    <t>0-19 Age</t>
+  </si>
+  <si>
+    <t>25-49 Age</t>
+  </si>
+  <si>
+    <t>50-75+ Age</t>
+  </si>
+  <si>
+    <t>Q-17</t>
+  </si>
+  <si>
+    <t>Q-18</t>
+  </si>
+  <si>
+    <t>Age group</t>
+  </si>
+  <si>
+    <t>Number of residents</t>
+  </si>
+  <si>
+    <t>50-57+</t>
+  </si>
+  <si>
+    <t>What is the total number of residents in region 3 (green) for all group ages?</t>
+  </si>
+  <si>
+    <t>What is the total number of users in regions 1-20 for all groups?</t>
+  </si>
+  <si>
+    <t>Total number of residents of ages 0-19 and 50-75+</t>
+  </si>
+  <si>
+    <t>Option 1:</t>
+  </si>
+  <si>
+    <t>Option 2:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="8">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.0000_ ;_-[$$-409]* \-#,##0.0000\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="172" formatCode="_-[$$-409]* #,##0.0000_ ;_-[$$-409]* \-#,##0.0000\ ;_-[$$-409]* &quot;-&quot;????_ ;_-@_ "/>
+    <numFmt numFmtId="174" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
+  </numFmts>
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1292,16 +2026,158 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF92D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5E0B3"/>
+        <bgColor rgb="FFC5E0B3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1595,12 +2471,139 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -1626,6 +2629,61 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="15" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1634,12 +2692,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1665,38 +2717,160 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{357CEF9E-15AE-46B3-B00B-999AE08EF4A3}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1713,6 +2887,12 @@
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1724,6 +2904,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1745,9 +2929,9 @@
   <autoFilter ref="A1:E102" xr:uid="{791C7E6B-2880-447F-ABB8-AD3F2B66BB21}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7FB7C58D-4C31-4156-95F4-7A2D5AB1C81A}" uniqueName="1" name="No." queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{AEE85E79-5C43-418C-A0D4-CFBAEB579BA6}" uniqueName="2" name="c" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{AEE85E79-5C43-418C-A0D4-CFBAEB579BA6}" uniqueName="2" name="c" queryTableFieldId="2" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{048013DB-8630-48D2-847C-B56955BE71F3}" uniqueName="3" name="Population" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{BEA35FD9-D02D-4451-867D-43F4CB3E40EC}" uniqueName="4" name="Date" queryTableFieldId="4" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{BEA35FD9-D02D-4451-867D-43F4CB3E40EC}" uniqueName="4" name="Date" queryTableFieldId="4" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{52B21BC5-F177-4F3A-B675-89788387247E}" uniqueName="5" name="Population 1" queryTableFieldId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1759,8 +2943,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{2BDBF3AC-46D5-47AD-B1E0-1DB128FD7250}" name="No."/>
     <tableColumn id="2" xr3:uid="{89C202B4-A36F-4884-B2DA-2DB159F7E33D}" name="Country"/>
-    <tableColumn id="3" xr3:uid="{C986858D-FBEE-4CB4-B7C9-0EF4D576484C}" name="Population" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{F1BC1599-BF64-4C18-81EA-97A109210D35}" name="Date" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{C986858D-FBEE-4CB4-B7C9-0EF4D576484C}" name="Population" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{F1BC1599-BF64-4C18-81EA-97A109210D35}" name="Date" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2031,8 +3215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53CC425E-A369-44AD-A12E-08F9DD95CEA2}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4383,8 +5567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC466D0-86E1-4119-8E18-81A0AA854627}">
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4402,78 +5586,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="R1" s="25"/>
+      <c r="R1" s="50"/>
     </row>
     <row r="2" spans="1:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="25"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="50"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
@@ -8377,14 +9561,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H1:H2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="G1:G2"/>
@@ -8395,9 +9571,17 @@
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="B13:B62">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8407,11 +9591,3712 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF489E25-6027-4D5C-A044-D513D69A41F3}">
+  <dimension ref="A1:Q63"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="102" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D1" s="103" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" s="103" t="s">
+        <v>284</v>
+      </c>
+      <c r="F1" s="103" t="s">
+        <v>286</v>
+      </c>
+      <c r="G1" s="104" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="112" t="s">
+        <v>237</v>
+      </c>
+      <c r="I1" s="113" t="s">
+        <v>238</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="K1" s="102" t="s">
+        <v>283</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="P1" s="105" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q1" s="106" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="94">
+        <v>56815</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" s="96" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2" s="96">
+        <v>35</v>
+      </c>
+      <c r="F2" s="96" t="s">
+        <v>288</v>
+      </c>
+      <c r="G2" s="97" t="s">
+        <v>262</v>
+      </c>
+      <c r="H2" s="114" t="s">
+        <v>239</v>
+      </c>
+      <c r="I2" s="115">
+        <v>759</v>
+      </c>
+      <c r="J2" s="120" t="s">
+        <v>261</v>
+      </c>
+      <c r="K2" s="98">
+        <v>13836</v>
+      </c>
+      <c r="L2" s="99">
+        <v>8000</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="N2" s="7">
+        <v>10</v>
+      </c>
+      <c r="O2" s="95">
+        <v>28</v>
+      </c>
+      <c r="P2" s="100">
+        <v>44197</v>
+      </c>
+      <c r="Q2" s="101">
+        <v>1.3671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="92">
+        <v>2</v>
+      </c>
+      <c r="B3" s="30">
+        <v>51186</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" s="29">
+        <v>42</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="H3" s="116" t="s">
+        <v>240</v>
+      </c>
+      <c r="I3" s="117">
+        <v>200</v>
+      </c>
+      <c r="J3" s="121" t="s">
+        <v>264</v>
+      </c>
+      <c r="K3" s="31">
+        <v>11771</v>
+      </c>
+      <c r="L3" s="27">
+        <v>11000</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="N3" s="26">
+        <v>9</v>
+      </c>
+      <c r="O3" s="28">
+        <v>8</v>
+      </c>
+      <c r="P3" s="32">
+        <v>44200</v>
+      </c>
+      <c r="Q3" s="93">
+        <v>1.3569</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="92">
+        <v>3</v>
+      </c>
+      <c r="B4" s="30">
+        <v>51511</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" s="29">
+        <v>28</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="H4" s="116" t="s">
+        <v>241</v>
+      </c>
+      <c r="I4" s="117">
+        <v>42</v>
+      </c>
+      <c r="J4" s="121" t="s">
+        <v>267</v>
+      </c>
+      <c r="K4" s="31">
+        <v>13046</v>
+      </c>
+      <c r="L4" s="27">
+        <v>6000</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="N4" s="26">
+        <v>5</v>
+      </c>
+      <c r="O4" s="28">
+        <v>19</v>
+      </c>
+      <c r="P4" s="32">
+        <v>44201</v>
+      </c>
+      <c r="Q4" s="93">
+        <v>1.3624000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="92">
+        <v>4</v>
+      </c>
+      <c r="B5" s="30">
+        <v>50890</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="E5" s="29">
+        <v>25</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="H5" s="116" t="s">
+        <v>242</v>
+      </c>
+      <c r="I5" s="117">
+        <v>423</v>
+      </c>
+      <c r="J5" s="121" t="s">
+        <v>269</v>
+      </c>
+      <c r="K5" s="31">
+        <v>18276</v>
+      </c>
+      <c r="L5" s="27">
+        <v>15000</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="N5" s="26">
+        <v>10</v>
+      </c>
+      <c r="O5" s="28">
+        <v>2</v>
+      </c>
+      <c r="P5" s="32">
+        <v>44202</v>
+      </c>
+      <c r="Q5" s="93">
+        <v>1.3607</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="92">
+        <v>5</v>
+      </c>
+      <c r="B6" s="30">
+        <v>53700</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6" s="29">
+        <v>31</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="H6" s="116" t="s">
+        <v>243</v>
+      </c>
+      <c r="I6" s="117">
+        <v>200</v>
+      </c>
+      <c r="J6" s="121" t="s">
+        <v>267</v>
+      </c>
+      <c r="K6" s="31">
+        <v>19327</v>
+      </c>
+      <c r="L6" s="27">
+        <v>10000</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="N6" s="26">
+        <v>2</v>
+      </c>
+      <c r="O6" s="28">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32">
+        <v>44203</v>
+      </c>
+      <c r="Q6" s="93">
+        <v>1.3563000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="92">
+        <v>6</v>
+      </c>
+      <c r="B7" s="30">
+        <v>55879</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="E7" s="29">
+        <v>27</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="H7" s="116" t="s">
+        <v>244</v>
+      </c>
+      <c r="I7" s="117">
+        <v>50</v>
+      </c>
+      <c r="J7" s="121" t="s">
+        <v>264</v>
+      </c>
+      <c r="K7" s="31">
+        <v>18996</v>
+      </c>
+      <c r="L7" s="27">
+        <v>15000</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="N7" s="26">
+        <v>5</v>
+      </c>
+      <c r="O7" s="28">
+        <v>9</v>
+      </c>
+      <c r="P7" s="32">
+        <v>44204</v>
+      </c>
+      <c r="Q7" s="93">
+        <v>1.3563000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="92">
+        <v>7</v>
+      </c>
+      <c r="B8" s="30">
+        <v>59848</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="E8" s="29">
+        <v>38</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="H8" s="116" t="s">
+        <v>245</v>
+      </c>
+      <c r="I8" s="117">
+        <v>700</v>
+      </c>
+      <c r="J8" s="121" t="s">
+        <v>267</v>
+      </c>
+      <c r="K8" s="31">
+        <v>10387</v>
+      </c>
+      <c r="L8" s="27">
+        <v>13000</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="N8" s="26">
+        <v>999</v>
+      </c>
+      <c r="O8" s="28">
+        <v>18</v>
+      </c>
+      <c r="P8" s="32">
+        <v>44207</v>
+      </c>
+      <c r="Q8" s="93">
+        <v>1.3513999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="92">
+        <v>8</v>
+      </c>
+      <c r="B9" s="30">
+        <v>58369</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="E9" s="29">
+        <v>29</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="H9" s="116" t="s">
+        <v>246</v>
+      </c>
+      <c r="I9" s="117">
+        <v>450</v>
+      </c>
+      <c r="J9" s="121" t="s">
+        <v>261</v>
+      </c>
+      <c r="K9" s="31">
+        <v>12566</v>
+      </c>
+      <c r="L9" s="27">
+        <v>8000</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="N9" s="26">
+        <v>2</v>
+      </c>
+      <c r="O9" s="28">
+        <v>11</v>
+      </c>
+      <c r="P9" s="32">
+        <v>44208</v>
+      </c>
+      <c r="Q9" s="93">
+        <v>1.3663000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="92">
+        <v>9</v>
+      </c>
+      <c r="B10" s="30">
+        <v>50217</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="E10" s="29">
+        <v>45</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="H10" s="116" t="s">
+        <v>247</v>
+      </c>
+      <c r="I10" s="117">
+        <v>605</v>
+      </c>
+      <c r="J10" s="121" t="s">
+        <v>269</v>
+      </c>
+      <c r="K10" s="31">
+        <v>16406</v>
+      </c>
+      <c r="L10" s="27">
+        <v>11000</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="N10" s="26">
+        <v>5</v>
+      </c>
+      <c r="O10" s="28">
+        <v>3</v>
+      </c>
+      <c r="P10" s="32">
+        <v>44209</v>
+      </c>
+      <c r="Q10" s="93">
+        <v>1.3636999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="107">
+        <v>10</v>
+      </c>
+      <c r="B11" s="108">
+        <v>50695</v>
+      </c>
+      <c r="C11" s="109" t="s">
+        <v>279</v>
+      </c>
+      <c r="D11" s="110" t="s">
+        <v>289</v>
+      </c>
+      <c r="E11" s="110">
+        <v>33</v>
+      </c>
+      <c r="F11" s="110" t="s">
+        <v>298</v>
+      </c>
+      <c r="G11" s="111" t="s">
+        <v>280</v>
+      </c>
+      <c r="H11" s="116" t="s">
+        <v>248</v>
+      </c>
+      <c r="I11" s="117">
+        <v>240</v>
+      </c>
+      <c r="J11" s="122" t="s">
+        <v>264</v>
+      </c>
+      <c r="K11" s="123">
+        <v>15784</v>
+      </c>
+      <c r="L11" s="124">
+        <v>9000</v>
+      </c>
+      <c r="M11" s="125" t="s">
+        <v>255</v>
+      </c>
+      <c r="N11" s="125">
+        <v>6</v>
+      </c>
+      <c r="O11" s="109">
+        <v>15</v>
+      </c>
+      <c r="P11" s="126">
+        <v>44210</v>
+      </c>
+      <c r="Q11" s="127">
+        <v>1.3687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="66"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="116" t="s">
+        <v>249</v>
+      </c>
+      <c r="I12" s="117">
+        <v>685</v>
+      </c>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="65"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="118" t="s">
+        <v>250</v>
+      </c>
+      <c r="I13" s="119">
+        <v>295</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H14" s="90"/>
+      <c r="I14" s="91"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H15" s="82" t="s">
+        <v>299</v>
+      </c>
+      <c r="I15" s="84">
+        <f>SUM(I2:I13)</f>
+        <v>4649</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="61"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="63"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="68" t="s">
+        <v>413</v>
+      </c>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="84">
+        <f>SUM(I2:I13)</f>
+        <v>4649</v>
+      </c>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="65"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="89" t="s">
+        <v>396</v>
+      </c>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="63"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="66"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="71" t="s">
+        <v>397</v>
+      </c>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="85">
+        <f>SUMIF(M2:M11,"Yes",L2:L11)</f>
+        <v>79000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="71" t="s">
+        <v>398</v>
+      </c>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="85">
+        <f>SUMIF(M2:M11,"No",L2:L11)</f>
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="71" t="s">
+        <v>399</v>
+      </c>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="85">
+        <f>SUMIF(L2:L11,"&gt;10000",N2:N11)</f>
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="71" t="s">
+        <v>400</v>
+      </c>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="85">
+        <f>SUMIF(L2:L11,"&gt;10000")</f>
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="71" t="s">
+        <v>401</v>
+      </c>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="85">
+        <f>SUMIF(L2:L11,"&gt;9500")</f>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="65"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="89" t="s">
+        <v>402</v>
+      </c>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="63"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="66"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="71" t="s">
+        <v>403</v>
+      </c>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="85">
+        <f>SUMIF(G2:G11,"USA",O2:O11)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="71" t="s">
+        <v>404</v>
+      </c>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="85">
+        <f>SUMIF(J2:J11,"Figure Skating",O2:O11)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="68" t="s">
+        <v>405</v>
+      </c>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="85">
+        <f>SUMIF(G2:G11,"USA",O2:O11)+SUMIF(G2:G11,"jamaica",O2:O11)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="65"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="61"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="63"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="72" t="s">
+        <v>412</v>
+      </c>
+      <c r="B40" s="73"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="74"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="75"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="74"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="66"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="66"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="66"/>
+      <c r="B44" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="83" t="s">
+        <v>281</v>
+      </c>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="66"/>
+      <c r="B45" s="76">
+        <v>44201</v>
+      </c>
+      <c r="C45" s="86">
+        <f>VLOOKUP(B45,P1:Q10,2,TRUE)</f>
+        <v>1.3624000000000001</v>
+      </c>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="66"/>
+      <c r="B46" s="77">
+        <v>44204</v>
+      </c>
+      <c r="C46" s="86">
+        <f>VLOOKUP(B46,P2:Q11,2,TRUE)</f>
+        <v>1.3563000000000001</v>
+      </c>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="66"/>
+      <c r="B47" s="77">
+        <v>44210</v>
+      </c>
+      <c r="C47" s="86">
+        <f>VLOOKUP(B47,P3:Q12,2,TRUE)</f>
+        <v>1.3687</v>
+      </c>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="65"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="89" t="s">
+        <v>406</v>
+      </c>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="63"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="66"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="78" t="s">
+        <v>407</v>
+      </c>
+      <c r="B53" s="79"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="87" t="str">
+        <f>VLOOKUP(B2,A2:Q11,3,TRUE)</f>
+        <v>Yelena Isinbayeva</v>
+      </c>
+      <c r="F53" s="87"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="66"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="80" t="s">
+        <v>408</v>
+      </c>
+      <c r="B55" s="81"/>
+      <c r="C55" s="81"/>
+      <c r="D55" s="81"/>
+      <c r="E55" s="87">
+        <f>VLOOKUP(C10,C2:E11,3,0)</f>
+        <v>45</v>
+      </c>
+      <c r="F55" s="87"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="65"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="89" t="s">
+        <v>409</v>
+      </c>
+      <c r="B58" s="62"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="62"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="63"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="66"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="B60" s="79"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="88" t="str">
+        <f>VLOOKUP(C3,C2:F11,4,0)</f>
+        <v>Data Scientist</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="66"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="78" t="s">
+        <v>411</v>
+      </c>
+      <c r="B62" s="79"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="88">
+        <f>VLOOKUP(C7,C1:E11,3,0)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="65"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A40:I41"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A20:H20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389E6A1E-82E0-4513-A8C4-08B452F4C122}">
+  <dimension ref="A1:T91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>415</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>416</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="36">
+        <v>42005</v>
+      </c>
+      <c r="B2" s="37">
+        <v>432.17</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>306</v>
+      </c>
+      <c r="E2" s="128">
+        <v>3419</v>
+      </c>
+      <c r="F2" s="128">
+        <v>4378</v>
+      </c>
+      <c r="G2" s="129">
+        <v>2755</v>
+      </c>
+      <c r="I2" s="89" t="s">
+        <v>418</v>
+      </c>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="63"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="36">
+        <v>42351</v>
+      </c>
+      <c r="B3" s="37">
+        <v>528.5</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="E3" s="128">
+        <v>1492</v>
+      </c>
+      <c r="F3" s="128">
+        <v>2126</v>
+      </c>
+      <c r="G3" s="129">
+        <v>2103</v>
+      </c>
+      <c r="I3" s="66"/>
+      <c r="J3" s="146" t="s">
+        <v>414</v>
+      </c>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="36">
+        <v>42007</v>
+      </c>
+      <c r="B4" s="37">
+        <v>810.71</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="E4" s="128">
+        <v>1371</v>
+      </c>
+      <c r="F4" s="128">
+        <v>1930</v>
+      </c>
+      <c r="G4" s="129">
+        <v>1823</v>
+      </c>
+      <c r="I4" s="66"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="131">
+        <f>SUM(B2:B91)</f>
+        <v>72741.76999999996</v>
+      </c>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="36">
+        <v>42008</v>
+      </c>
+      <c r="B5" s="37">
+        <v>418.54</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5" s="128">
+        <v>1607</v>
+      </c>
+      <c r="F5" s="128">
+        <v>2133</v>
+      </c>
+      <c r="G5" s="129">
+        <v>2102</v>
+      </c>
+      <c r="I5" s="66"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="36">
+        <v>42009</v>
+      </c>
+      <c r="B6" s="37">
+        <v>722.22</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>310</v>
+      </c>
+      <c r="E6" s="128">
+        <v>951</v>
+      </c>
+      <c r="F6" s="128">
+        <v>1445</v>
+      </c>
+      <c r="G6" s="129">
+        <v>1416</v>
+      </c>
+      <c r="I6" s="66"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="36">
+        <v>42010</v>
+      </c>
+      <c r="B7" s="37">
+        <v>460.28</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="E7" s="128">
+        <v>889</v>
+      </c>
+      <c r="F7" s="128">
+        <v>1293</v>
+      </c>
+      <c r="G7" s="129">
+        <v>1526</v>
+      </c>
+      <c r="I7" s="65"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="36">
+        <v>42349</v>
+      </c>
+      <c r="B8" s="37">
+        <v>483.58</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="E8" s="128">
+        <v>1254</v>
+      </c>
+      <c r="F8" s="128">
+        <v>1989</v>
+      </c>
+      <c r="G8" s="129">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="36">
+        <v>42012</v>
+      </c>
+      <c r="B9" s="37">
+        <v>114.53</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="E9" s="128">
+        <v>1025</v>
+      </c>
+      <c r="F9" s="128">
+        <v>1362</v>
+      </c>
+      <c r="G9" s="129">
+        <v>2077</v>
+      </c>
+      <c r="I9" s="61"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="63"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="36">
+        <v>42013</v>
+      </c>
+      <c r="B10" s="37">
+        <v>609.12</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="E10" s="128">
+        <v>1194</v>
+      </c>
+      <c r="F10" s="128">
+        <v>2016</v>
+      </c>
+      <c r="G10" s="129">
+        <v>1452</v>
+      </c>
+      <c r="I10" s="151" t="s">
+        <v>419</v>
+      </c>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="36">
+        <v>42014</v>
+      </c>
+      <c r="B11" s="37">
+        <v>1197.9000000000001</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="E11" s="128">
+        <v>607</v>
+      </c>
+      <c r="F11" s="128">
+        <v>853</v>
+      </c>
+      <c r="G11" s="129">
+        <v>1022</v>
+      </c>
+      <c r="I11" s="66"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="130"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="36">
+        <v>42015</v>
+      </c>
+      <c r="B12" s="37">
+        <v>228.89</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="E12" s="128">
+        <v>626</v>
+      </c>
+      <c r="F12" s="128">
+        <v>1569</v>
+      </c>
+      <c r="G12" s="129">
+        <v>1033</v>
+      </c>
+      <c r="I12" s="66"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="36">
+        <v>42016</v>
+      </c>
+      <c r="B13" s="37">
+        <v>1380.07</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="E13" s="128">
+        <v>1037</v>
+      </c>
+      <c r="F13" s="128">
+        <v>2300</v>
+      </c>
+      <c r="G13" s="129">
+        <v>1598</v>
+      </c>
+      <c r="I13" s="66"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="36">
+        <v>42017</v>
+      </c>
+      <c r="B14" s="37">
+        <v>1026.96</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="E14" s="128">
+        <v>972</v>
+      </c>
+      <c r="F14" s="128">
+        <v>2128</v>
+      </c>
+      <c r="G14" s="129">
+        <v>912</v>
+      </c>
+      <c r="I14" s="66"/>
+      <c r="J14" s="140" t="s">
+        <v>420</v>
+      </c>
+      <c r="K14" s="141"/>
+      <c r="L14" s="142" t="s">
+        <v>303</v>
+      </c>
+      <c r="M14" s="142"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="36">
+        <v>42018</v>
+      </c>
+      <c r="B15" s="37">
+        <v>760.24</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="E15" s="128">
+        <v>88</v>
+      </c>
+      <c r="F15" s="128">
+        <v>1159</v>
+      </c>
+      <c r="G15" s="129">
+        <v>0</v>
+      </c>
+      <c r="I15" s="66"/>
+      <c r="J15" s="71" t="s">
+        <v>421</v>
+      </c>
+      <c r="K15" s="71"/>
+      <c r="L15" s="143">
+        <f>SUM(E2:E91)</f>
+        <v>58005</v>
+      </c>
+      <c r="M15" s="143"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="36">
+        <v>42019</v>
+      </c>
+      <c r="B16" s="37">
+        <v>414.11</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="E16" s="128">
+        <v>2052</v>
+      </c>
+      <c r="F16" s="128">
+        <v>2159</v>
+      </c>
+      <c r="G16" s="129">
+        <v>1582</v>
+      </c>
+      <c r="I16" s="66"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="36">
+        <v>42020</v>
+      </c>
+      <c r="B17" s="37">
+        <v>1728.81</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>321</v>
+      </c>
+      <c r="E17" s="128">
+        <v>1582</v>
+      </c>
+      <c r="F17" s="128">
+        <v>2308</v>
+      </c>
+      <c r="G17" s="129">
+        <v>1699</v>
+      </c>
+      <c r="I17" s="66"/>
+      <c r="J17" s="144" t="s">
+        <v>420</v>
+      </c>
+      <c r="K17" s="144"/>
+      <c r="L17" s="142" t="s">
+        <v>304</v>
+      </c>
+      <c r="M17" s="142"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="36">
+        <v>42021</v>
+      </c>
+      <c r="B18" s="37">
+        <v>276.06</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="E18" s="128">
+        <v>1088</v>
+      </c>
+      <c r="F18" s="128">
+        <v>1218</v>
+      </c>
+      <c r="G18" s="129">
+        <v>981</v>
+      </c>
+      <c r="I18" s="66"/>
+      <c r="J18" s="147" t="s">
+        <v>421</v>
+      </c>
+      <c r="K18" s="148"/>
+      <c r="L18" s="143">
+        <f>SUM(F2:F91)</f>
+        <v>130000</v>
+      </c>
+      <c r="M18" s="143"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="36">
+        <v>42022</v>
+      </c>
+      <c r="B19" s="37">
+        <v>462.22</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>323</v>
+      </c>
+      <c r="E19" s="128">
+        <v>706</v>
+      </c>
+      <c r="F19" s="128">
+        <v>1151</v>
+      </c>
+      <c r="G19" s="129">
+        <v>1145</v>
+      </c>
+      <c r="I19" s="66"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="36">
+        <v>42023</v>
+      </c>
+      <c r="B20" s="37">
+        <v>1281.0999999999999</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="E20" s="128">
+        <v>1335</v>
+      </c>
+      <c r="F20" s="128">
+        <v>2098</v>
+      </c>
+      <c r="G20" s="129">
+        <v>1322</v>
+      </c>
+      <c r="I20" s="66"/>
+      <c r="J20" s="144" t="s">
+        <v>420</v>
+      </c>
+      <c r="K20" s="144"/>
+      <c r="L20" s="142" t="s">
+        <v>422</v>
+      </c>
+      <c r="M20" s="142"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="36">
+        <v>42024</v>
+      </c>
+      <c r="B21" s="37">
+        <v>1113.7</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="E21" s="128">
+        <v>702</v>
+      </c>
+      <c r="F21" s="128">
+        <v>1162</v>
+      </c>
+      <c r="G21" s="129">
+        <v>877</v>
+      </c>
+      <c r="I21" s="66"/>
+      <c r="J21" s="149" t="s">
+        <v>421</v>
+      </c>
+      <c r="K21" s="149"/>
+      <c r="L21" s="145">
+        <f>SUM(G2:G91)</f>
+        <v>76758</v>
+      </c>
+      <c r="M21" s="145"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="36">
+        <v>42025</v>
+      </c>
+      <c r="B22" s="37">
+        <v>594.09</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="E22" s="128">
+        <v>968</v>
+      </c>
+      <c r="F22" s="128">
+        <v>1101</v>
+      </c>
+      <c r="G22" s="129">
+        <v>797</v>
+      </c>
+      <c r="I22" s="66"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="36">
+        <v>42026</v>
+      </c>
+      <c r="B23" s="37">
+        <v>432.67</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="E23" s="128">
+        <v>1664</v>
+      </c>
+      <c r="F23" s="128">
+        <v>2069</v>
+      </c>
+      <c r="G23" s="129">
+        <v>1710</v>
+      </c>
+      <c r="I23" s="66"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="36">
+        <v>42027</v>
+      </c>
+      <c r="B24" s="37">
+        <v>874.45</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="E24" s="128">
+        <v>624</v>
+      </c>
+      <c r="F24" s="128">
+        <v>770</v>
+      </c>
+      <c r="G24" s="129">
+        <v>746</v>
+      </c>
+      <c r="I24" s="66"/>
+      <c r="J24" s="79" t="s">
+        <v>423</v>
+      </c>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="150"/>
+    </row>
+    <row r="25" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="36">
+        <v>42028</v>
+      </c>
+      <c r="B25" s="37">
+        <v>880.38</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="E25" s="128">
+        <v>685</v>
+      </c>
+      <c r="F25" s="128">
+        <v>1501</v>
+      </c>
+      <c r="G25" s="129">
+        <v>1126</v>
+      </c>
+      <c r="I25" s="66"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="132">
+        <f>SUM(E4:G4)</f>
+        <v>5124</v>
+      </c>
+      <c r="O25" s="133"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="36">
+        <v>42029</v>
+      </c>
+      <c r="B26" s="37">
+        <v>798.53</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="E26" s="128">
+        <v>1248</v>
+      </c>
+      <c r="F26" s="128">
+        <v>1763</v>
+      </c>
+      <c r="G26" s="129">
+        <v>1146</v>
+      </c>
+      <c r="I26" s="66"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="36">
+        <v>42318</v>
+      </c>
+      <c r="B27" s="37">
+        <v>572.41999999999996</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>331</v>
+      </c>
+      <c r="E27" s="128">
+        <v>1342</v>
+      </c>
+      <c r="F27" s="128">
+        <v>1559</v>
+      </c>
+      <c r="G27" s="129">
+        <v>1307</v>
+      </c>
+      <c r="I27" s="66"/>
+      <c r="J27" s="79" t="s">
+        <v>424</v>
+      </c>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="150"/>
+    </row>
+    <row r="28" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="36">
+        <v>42031</v>
+      </c>
+      <c r="B28" s="37">
+        <v>330.61</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="E28" s="128">
+        <v>760</v>
+      </c>
+      <c r="F28" s="128">
+        <v>965</v>
+      </c>
+      <c r="G28" s="129">
+        <v>921</v>
+      </c>
+      <c r="I28" s="66"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="132">
+        <f>SUM(E2:E21)+SUM(F2:F21)+SUM(G2:G21)</f>
+        <v>89884</v>
+      </c>
+      <c r="O28" s="133"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="36">
+        <v>42032</v>
+      </c>
+      <c r="B29" s="37">
+        <v>567.17999999999995</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="E29" s="128">
+        <v>1187</v>
+      </c>
+      <c r="F29" s="128">
+        <v>1568</v>
+      </c>
+      <c r="G29" s="129">
+        <v>1190</v>
+      </c>
+      <c r="I29" s="66"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="67"/>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="36">
+        <v>42033</v>
+      </c>
+      <c r="B30" s="37">
+        <v>1449.21</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="E30" s="128">
+        <v>0</v>
+      </c>
+      <c r="F30" s="128">
+        <v>0</v>
+      </c>
+      <c r="G30" s="129">
+        <v>277</v>
+      </c>
+      <c r="I30" s="66"/>
+      <c r="J30" s="79" t="s">
+        <v>425</v>
+      </c>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="150"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="36">
+        <v>42034</v>
+      </c>
+      <c r="B31" s="37">
+        <v>459.29</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="E31" s="128">
+        <v>368</v>
+      </c>
+      <c r="F31" s="128">
+        <v>1386</v>
+      </c>
+      <c r="G31" s="129">
+        <v>637</v>
+      </c>
+      <c r="I31" s="66"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="134" t="s">
+        <v>426</v>
+      </c>
+      <c r="N31" s="135">
+        <f>SUM(E2:E91)</f>
+        <v>58005</v>
+      </c>
+      <c r="O31" s="136"/>
+      <c r="P31" s="67"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="36">
+        <v>42035</v>
+      </c>
+      <c r="B32" s="37">
+        <v>357.55</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>336</v>
+      </c>
+      <c r="E32" s="128">
+        <v>317</v>
+      </c>
+      <c r="F32" s="128">
+        <v>1215</v>
+      </c>
+      <c r="G32" s="129">
+        <v>478</v>
+      </c>
+      <c r="I32" s="66"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="137" t="s">
+        <v>427</v>
+      </c>
+      <c r="N32" s="138">
+        <f>SUM(G2:G91)</f>
+        <v>76758</v>
+      </c>
+      <c r="O32" s="139"/>
+      <c r="P32" s="67"/>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="36">
+        <v>42036</v>
+      </c>
+      <c r="B33" s="37">
+        <v>154.34</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="E33" s="128">
+        <v>689</v>
+      </c>
+      <c r="F33" s="128">
+        <v>2544</v>
+      </c>
+      <c r="G33" s="129">
+        <v>1009</v>
+      </c>
+      <c r="I33" s="66"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="67"/>
+      <c r="P33" s="67"/>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="36">
+        <v>42037</v>
+      </c>
+      <c r="B34" s="37">
+        <v>152.76</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="E34" s="128">
+        <v>510</v>
+      </c>
+      <c r="F34" s="128">
+        <v>2583</v>
+      </c>
+      <c r="G34" s="129">
+        <v>861</v>
+      </c>
+      <c r="I34" s="65"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="36">
+        <v>42038</v>
+      </c>
+      <c r="B35" s="37">
+        <v>570.22</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="E35" s="128">
+        <v>257</v>
+      </c>
+      <c r="F35" s="128">
+        <v>1023</v>
+      </c>
+      <c r="G35" s="129">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="36">
+        <v>42039</v>
+      </c>
+      <c r="B36" s="37">
+        <v>987.62</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="E36" s="128">
+        <v>335</v>
+      </c>
+      <c r="F36" s="128">
+        <v>1225</v>
+      </c>
+      <c r="G36" s="129">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="36">
+        <v>42040</v>
+      </c>
+      <c r="B37" s="37">
+        <v>1755.71</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="E37" s="128">
+        <v>264</v>
+      </c>
+      <c r="F37" s="128">
+        <v>957</v>
+      </c>
+      <c r="G37" s="129">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="36">
+        <v>42041</v>
+      </c>
+      <c r="B38" s="37">
+        <v>378.27</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="E38" s="128">
+        <v>285</v>
+      </c>
+      <c r="F38" s="128">
+        <v>869</v>
+      </c>
+      <c r="G38" s="129">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="36">
+        <v>42042</v>
+      </c>
+      <c r="B39" s="37">
+        <v>1323.81</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="E39" s="128">
+        <v>550</v>
+      </c>
+      <c r="F39" s="128">
+        <v>2502</v>
+      </c>
+      <c r="G39" s="129">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="36">
+        <v>42043</v>
+      </c>
+      <c r="B40" s="37">
+        <v>399.02</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="E40" s="128">
+        <v>266</v>
+      </c>
+      <c r="F40" s="128">
+        <v>1382</v>
+      </c>
+      <c r="G40" s="129">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="36">
+        <v>42044</v>
+      </c>
+      <c r="B41" s="37">
+        <v>154.94999999999999</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="E41" s="128">
+        <v>598</v>
+      </c>
+      <c r="F41" s="128">
+        <v>2107</v>
+      </c>
+      <c r="G41" s="129">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="36">
+        <v>42045</v>
+      </c>
+      <c r="B42" s="37">
+        <v>1254.57</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="E42" s="128">
+        <v>344</v>
+      </c>
+      <c r="F42" s="128">
+        <v>1641</v>
+      </c>
+      <c r="G42" s="129">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="36">
+        <v>42046</v>
+      </c>
+      <c r="B43" s="37">
+        <v>627.32000000000005</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D43" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="E43" s="128">
+        <v>183</v>
+      </c>
+      <c r="F43" s="128">
+        <v>867</v>
+      </c>
+      <c r="G43" s="129">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="36">
+        <v>42230</v>
+      </c>
+      <c r="B44" s="37">
+        <v>880.6</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D44" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="E44" s="128">
+        <v>302</v>
+      </c>
+      <c r="F44" s="128">
+        <v>1326</v>
+      </c>
+      <c r="G44" s="129">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="36">
+        <v>42048</v>
+      </c>
+      <c r="B45" s="37">
+        <v>1196.03</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D45" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="E45" s="128">
+        <v>177</v>
+      </c>
+      <c r="F45" s="128">
+        <v>823</v>
+      </c>
+      <c r="G45" s="129">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="36">
+        <v>42049</v>
+      </c>
+      <c r="B46" s="37">
+        <v>782.32</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D46" s="41" t="s">
+        <v>350</v>
+      </c>
+      <c r="E46" s="128">
+        <v>285</v>
+      </c>
+      <c r="F46" s="128">
+        <v>1249</v>
+      </c>
+      <c r="G46" s="129">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="36">
+        <v>42050</v>
+      </c>
+      <c r="B47" s="37">
+        <v>1323.35</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>351</v>
+      </c>
+      <c r="E47" s="128">
+        <v>236</v>
+      </c>
+      <c r="F47" s="128">
+        <v>1162</v>
+      </c>
+      <c r="G47" s="129">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="36">
+        <v>42051</v>
+      </c>
+      <c r="B48" s="37">
+        <v>209.92</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D48" s="41" t="s">
+        <v>352</v>
+      </c>
+      <c r="E48" s="128">
+        <v>293</v>
+      </c>
+      <c r="F48" s="128">
+        <v>1016</v>
+      </c>
+      <c r="G48" s="129">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="36">
+        <v>42052</v>
+      </c>
+      <c r="B49" s="37">
+        <v>1232.05</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="E49" s="128">
+        <v>242</v>
+      </c>
+      <c r="F49" s="128">
+        <v>1363</v>
+      </c>
+      <c r="G49" s="129">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="36">
+        <v>42053</v>
+      </c>
+      <c r="B50" s="37">
+        <v>713.28</v>
+      </c>
+      <c r="C50" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D50" s="41" t="s">
+        <v>354</v>
+      </c>
+      <c r="E50" s="128">
+        <v>248</v>
+      </c>
+      <c r="F50" s="128">
+        <v>1398</v>
+      </c>
+      <c r="G50" s="129">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="36">
+        <v>42054</v>
+      </c>
+      <c r="B51" s="37">
+        <v>1674.82</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="E51" s="128">
+        <v>292</v>
+      </c>
+      <c r="F51" s="128">
+        <v>1380</v>
+      </c>
+      <c r="G51" s="129">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="36">
+        <v>42055</v>
+      </c>
+      <c r="B52" s="37">
+        <v>1161.25</v>
+      </c>
+      <c r="C52" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D52" s="41" t="s">
+        <v>356</v>
+      </c>
+      <c r="E52" s="128">
+        <v>196</v>
+      </c>
+      <c r="F52" s="128">
+        <v>1238</v>
+      </c>
+      <c r="G52" s="129">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="36">
+        <v>42056</v>
+      </c>
+      <c r="B53" s="37">
+        <v>897.63</v>
+      </c>
+      <c r="C53" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D53" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="E53" s="128">
+        <v>432</v>
+      </c>
+      <c r="F53" s="128">
+        <v>1216</v>
+      </c>
+      <c r="G53" s="129">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="36">
+        <v>42057</v>
+      </c>
+      <c r="B54" s="37">
+        <v>1647.26</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D54" s="41" t="s">
+        <v>358</v>
+      </c>
+      <c r="E54" s="128">
+        <v>420</v>
+      </c>
+      <c r="F54" s="128">
+        <v>1581</v>
+      </c>
+      <c r="G54" s="129">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="36">
+        <v>42058</v>
+      </c>
+      <c r="B55" s="37">
+        <v>1121.96</v>
+      </c>
+      <c r="C55" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D55" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="E55" s="128">
+        <v>398</v>
+      </c>
+      <c r="F55" s="128">
+        <v>1759</v>
+      </c>
+      <c r="G55" s="129">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="36">
+        <v>42059</v>
+      </c>
+      <c r="B56" s="37">
+        <v>352.2</v>
+      </c>
+      <c r="C56" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D56" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="E56" s="128">
+        <v>128</v>
+      </c>
+      <c r="F56" s="128">
+        <v>791</v>
+      </c>
+      <c r="G56" s="129">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="36">
+        <v>42060</v>
+      </c>
+      <c r="B57" s="37">
+        <v>270.77999999999997</v>
+      </c>
+      <c r="C57" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D57" s="41" t="s">
+        <v>361</v>
+      </c>
+      <c r="E57" s="128">
+        <v>225</v>
+      </c>
+      <c r="F57" s="128">
+        <v>935</v>
+      </c>
+      <c r="G57" s="129">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="36">
+        <v>42061</v>
+      </c>
+      <c r="B58" s="37">
+        <v>456.41</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D58" s="41" t="s">
+        <v>362</v>
+      </c>
+      <c r="E58" s="128">
+        <v>1358</v>
+      </c>
+      <c r="F58" s="128">
+        <v>2231</v>
+      </c>
+      <c r="G58" s="129">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="36">
+        <v>42062</v>
+      </c>
+      <c r="B59" s="37">
+        <v>441</v>
+      </c>
+      <c r="C59" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D59" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="E59" s="128">
+        <v>1345</v>
+      </c>
+      <c r="F59" s="128">
+        <v>1791</v>
+      </c>
+      <c r="G59" s="129">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="36">
+        <v>42063</v>
+      </c>
+      <c r="B60" s="37">
+        <v>252.44</v>
+      </c>
+      <c r="C60" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D60" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="E60" s="128">
+        <v>769</v>
+      </c>
+      <c r="F60" s="128">
+        <v>1948</v>
+      </c>
+      <c r="G60" s="129">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="36">
+        <v>42064</v>
+      </c>
+      <c r="B61" s="37">
+        <v>1298.92</v>
+      </c>
+      <c r="C61" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D61" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="E61" s="128">
+        <v>560</v>
+      </c>
+      <c r="F61" s="128">
+        <v>1835</v>
+      </c>
+      <c r="G61" s="129">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="36">
+        <v>42065</v>
+      </c>
+      <c r="B62" s="37">
+        <v>1178.07</v>
+      </c>
+      <c r="C62" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D62" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="E62" s="128">
+        <v>836</v>
+      </c>
+      <c r="F62" s="128">
+        <v>2245</v>
+      </c>
+      <c r="G62" s="129">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="36">
+        <v>42066</v>
+      </c>
+      <c r="B63" s="37">
+        <v>459.95</v>
+      </c>
+      <c r="C63" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D63" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="E63" s="128">
+        <v>587</v>
+      </c>
+      <c r="F63" s="128">
+        <v>1471</v>
+      </c>
+      <c r="G63" s="129">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="36">
+        <v>42067</v>
+      </c>
+      <c r="B64" s="37">
+        <v>1219.7</v>
+      </c>
+      <c r="C64" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D64" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="E64" s="128">
+        <v>774</v>
+      </c>
+      <c r="F64" s="128">
+        <v>1403</v>
+      </c>
+      <c r="G64" s="129">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="36">
+        <v>42068</v>
+      </c>
+      <c r="B65" s="37">
+        <v>152.24</v>
+      </c>
+      <c r="C65" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D65" s="41" t="s">
+        <v>369</v>
+      </c>
+      <c r="E65" s="128">
+        <v>757</v>
+      </c>
+      <c r="F65" s="128">
+        <v>1203</v>
+      </c>
+      <c r="G65" s="129">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="36">
+        <v>42069</v>
+      </c>
+      <c r="B66" s="37">
+        <v>770.8</v>
+      </c>
+      <c r="C66" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D66" s="41" t="s">
+        <v>370</v>
+      </c>
+      <c r="E66" s="128">
+        <v>591</v>
+      </c>
+      <c r="F66" s="128">
+        <v>1439</v>
+      </c>
+      <c r="G66" s="129">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="36">
+        <v>42070</v>
+      </c>
+      <c r="B67" s="37">
+        <v>1357.25</v>
+      </c>
+      <c r="C67" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D67" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="E67" s="128">
+        <v>457</v>
+      </c>
+      <c r="F67" s="128">
+        <v>1161</v>
+      </c>
+      <c r="G67" s="129">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="36">
+        <v>42187</v>
+      </c>
+      <c r="B68" s="37">
+        <v>220.18</v>
+      </c>
+      <c r="C68" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D68" s="41" t="s">
+        <v>372</v>
+      </c>
+      <c r="E68" s="128">
+        <v>494</v>
+      </c>
+      <c r="F68" s="128">
+        <v>1585</v>
+      </c>
+      <c r="G68" s="129">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="36">
+        <v>42072</v>
+      </c>
+      <c r="B69" s="37">
+        <v>1102.81</v>
+      </c>
+      <c r="C69" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D69" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="E69" s="128">
+        <v>914</v>
+      </c>
+      <c r="F69" s="128">
+        <v>1727</v>
+      </c>
+      <c r="G69" s="129">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="36">
+        <v>42073</v>
+      </c>
+      <c r="B70" s="37">
+        <v>1566.83</v>
+      </c>
+      <c r="C70" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D70" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="E70" s="128">
+        <v>581</v>
+      </c>
+      <c r="F70" s="128">
+        <v>1448</v>
+      </c>
+      <c r="G70" s="129">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="36">
+        <v>42074</v>
+      </c>
+      <c r="B71" s="37">
+        <v>437.92</v>
+      </c>
+      <c r="C71" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D71" s="41" t="s">
+        <v>375</v>
+      </c>
+      <c r="E71" s="128">
+        <v>31</v>
+      </c>
+      <c r="F71" s="128">
+        <v>0</v>
+      </c>
+      <c r="G71" s="129">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="36">
+        <v>42075</v>
+      </c>
+      <c r="B72" s="37">
+        <v>1216.1199999999999</v>
+      </c>
+      <c r="C72" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D72" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="E72" s="128">
+        <v>92</v>
+      </c>
+      <c r="F72" s="128">
+        <v>233</v>
+      </c>
+      <c r="G72" s="129">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="36">
+        <v>42076</v>
+      </c>
+      <c r="B73" s="37">
+        <v>273.10000000000002</v>
+      </c>
+      <c r="C73" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D73" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="E73" s="128">
+        <v>486</v>
+      </c>
+      <c r="F73" s="128">
+        <v>1176</v>
+      </c>
+      <c r="G73" s="129">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="36">
+        <v>42077</v>
+      </c>
+      <c r="B74" s="37">
+        <v>242.26</v>
+      </c>
+      <c r="C74" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D74" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="E74" s="128">
+        <v>440</v>
+      </c>
+      <c r="F74" s="128">
+        <v>874</v>
+      </c>
+      <c r="G74" s="129">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="36">
+        <v>42078</v>
+      </c>
+      <c r="B75" s="37">
+        <v>1512.6</v>
+      </c>
+      <c r="C75" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D75" s="41" t="s">
+        <v>379</v>
+      </c>
+      <c r="E75" s="128">
+        <v>127</v>
+      </c>
+      <c r="F75" s="128">
+        <v>695</v>
+      </c>
+      <c r="G75" s="129">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="36">
+        <v>42079</v>
+      </c>
+      <c r="B76" s="37">
+        <v>783.75</v>
+      </c>
+      <c r="C76" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D76" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="E76" s="128">
+        <v>257</v>
+      </c>
+      <c r="F76" s="128">
+        <v>1367</v>
+      </c>
+      <c r="G76" s="129">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="36">
+        <v>42189</v>
+      </c>
+      <c r="B77" s="37">
+        <v>667.99</v>
+      </c>
+      <c r="C77" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D77" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="E77" s="128">
+        <v>399</v>
+      </c>
+      <c r="F77" s="128">
+        <v>1238</v>
+      </c>
+      <c r="G77" s="129">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="36">
+        <v>42081</v>
+      </c>
+      <c r="B78" s="37">
+        <v>1166.31</v>
+      </c>
+      <c r="C78" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D78" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="E78" s="128">
+        <v>470</v>
+      </c>
+      <c r="F78" s="128">
+        <v>1609</v>
+      </c>
+      <c r="G78" s="129">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="36">
+        <v>42082</v>
+      </c>
+      <c r="B79" s="37">
+        <v>770.18</v>
+      </c>
+      <c r="C79" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D79" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="E79" s="128">
+        <v>651</v>
+      </c>
+      <c r="F79" s="128">
+        <v>2120</v>
+      </c>
+      <c r="G79" s="129">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="36">
+        <v>42083</v>
+      </c>
+      <c r="B80" s="37">
+        <v>132.34</v>
+      </c>
+      <c r="C80" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D80" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="E80" s="128">
+        <v>757</v>
+      </c>
+      <c r="F80" s="128">
+        <v>2498</v>
+      </c>
+      <c r="G80" s="129">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="36">
+        <v>42084</v>
+      </c>
+      <c r="B81" s="37">
+        <v>1188.81</v>
+      </c>
+      <c r="C81" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D81" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="E81" s="128">
+        <v>526</v>
+      </c>
+      <c r="F81" s="128">
+        <v>1902</v>
+      </c>
+      <c r="G81" s="129">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="36">
+        <v>42085</v>
+      </c>
+      <c r="B82" s="37">
+        <v>198.06</v>
+      </c>
+      <c r="C82" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D82" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="E82" s="128">
+        <v>196</v>
+      </c>
+      <c r="F82" s="128">
+        <v>994</v>
+      </c>
+      <c r="G82" s="129">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="36">
+        <v>42086</v>
+      </c>
+      <c r="B83" s="37">
+        <v>594.16999999999996</v>
+      </c>
+      <c r="C83" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D83" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="E83" s="128">
+        <v>260</v>
+      </c>
+      <c r="F83" s="128">
+        <v>1010</v>
+      </c>
+      <c r="G83" s="129">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="36">
+        <v>42087</v>
+      </c>
+      <c r="B84" s="37">
+        <v>931.09</v>
+      </c>
+      <c r="C84" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D84" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="E84" s="128">
+        <v>192</v>
+      </c>
+      <c r="F84" s="128">
+        <v>899</v>
+      </c>
+      <c r="G84" s="129">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="36">
+        <v>42088</v>
+      </c>
+      <c r="B85" s="37">
+        <v>299.64</v>
+      </c>
+      <c r="C85" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D85" s="41" t="s">
+        <v>389</v>
+      </c>
+      <c r="E85" s="128">
+        <v>177</v>
+      </c>
+      <c r="F85" s="128">
+        <v>284</v>
+      </c>
+      <c r="G85" s="129">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="36">
+        <v>42223</v>
+      </c>
+      <c r="B86" s="37">
+        <v>1701.68</v>
+      </c>
+      <c r="C86" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D86" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="E86" s="128">
+        <v>741</v>
+      </c>
+      <c r="F86" s="128">
+        <v>1781</v>
+      </c>
+      <c r="G86" s="129">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="36">
+        <v>42090</v>
+      </c>
+      <c r="B87" s="37">
+        <v>399.15</v>
+      </c>
+      <c r="C87" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D87" s="41" t="s">
+        <v>391</v>
+      </c>
+      <c r="E87" s="128">
+        <v>174</v>
+      </c>
+      <c r="F87" s="128">
+        <v>773</v>
+      </c>
+      <c r="G87" s="129">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="36">
+        <v>42091</v>
+      </c>
+      <c r="B88" s="37">
+        <v>374.81</v>
+      </c>
+      <c r="C88" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D88" s="41" t="s">
+        <v>392</v>
+      </c>
+      <c r="E88" s="128">
+        <v>94</v>
+      </c>
+      <c r="F88" s="128">
+        <v>769</v>
+      </c>
+      <c r="G88" s="129">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="36">
+        <v>42092</v>
+      </c>
+      <c r="B89" s="37">
+        <v>462.17</v>
+      </c>
+      <c r="C89" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D89" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="E89" s="128">
+        <v>197</v>
+      </c>
+      <c r="F89" s="128">
+        <v>837</v>
+      </c>
+      <c r="G89" s="129">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="36">
+        <v>42093</v>
+      </c>
+      <c r="B90" s="37">
+        <v>924.29</v>
+      </c>
+      <c r="C90" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D90" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="E90" s="128">
+        <v>318</v>
+      </c>
+      <c r="F90" s="128">
+        <v>1120</v>
+      </c>
+      <c r="G90" s="129">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="36">
+        <v>42094</v>
+      </c>
+      <c r="B91" s="37">
+        <v>5000.6000000000004</v>
+      </c>
+      <c r="C91" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="D91" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="E91" s="128">
+        <v>82</v>
+      </c>
+      <c r="F91" s="128">
+        <v>723</v>
+      </c>
+      <c r="G91" s="129">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J27:Q27"/>
+    <mergeCell ref="J30:Q30"/>
+    <mergeCell ref="J24:Q24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J3:Q6"/>
+    <mergeCell ref="J11:Q11"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB264D5-E235-4E2F-B4F1-805810677AF5}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8444,13 +13329,13 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" t="s">
         <v>133</v>
       </c>
       <c r="C2">
         <v>1411750000</v>
       </c>
-      <c r="D2" s="45">
+      <c r="D2" s="25">
         <v>44926</v>
       </c>
       <c r="E2">
@@ -8461,13 +13346,13 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" t="s">
         <v>134</v>
       </c>
       <c r="C3">
         <v>1392329000</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="25">
         <v>45108</v>
       </c>
       <c r="E3">
@@ -8478,13 +13363,13 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" t="s">
         <v>135</v>
       </c>
       <c r="C4">
         <v>335305000</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="25">
         <v>45163</v>
       </c>
       <c r="E4">
@@ -8495,13 +13380,13 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" t="s">
         <v>136</v>
       </c>
       <c r="C5">
         <v>277749853</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="25">
         <v>44926</v>
       </c>
       <c r="E5">
@@ -8512,13 +13397,13 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" t="s">
         <v>137</v>
       </c>
       <c r="C6">
         <v>241499431</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="25">
         <v>44986</v>
       </c>
       <c r="E6">
@@ -8529,13 +13414,13 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" t="s">
         <v>138</v>
       </c>
       <c r="C7">
         <v>216783400</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="25">
         <v>44641</v>
       </c>
       <c r="E7">
@@ -8546,13 +13431,13 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" t="s">
         <v>139</v>
       </c>
       <c r="C8">
         <v>203062512</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="25">
         <v>44774</v>
       </c>
       <c r="E8">
@@ -8563,13 +13448,13 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" t="s">
         <v>140</v>
       </c>
       <c r="C9">
         <v>169828911</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="25">
         <v>44726</v>
       </c>
       <c r="E9">
@@ -8580,13 +13465,13 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" t="s">
         <v>141</v>
       </c>
       <c r="C10">
         <v>146424729</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="25">
         <v>44927</v>
       </c>
       <c r="E10">
@@ -8597,13 +13482,13 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" t="s">
         <v>142</v>
       </c>
       <c r="C11">
         <v>129035733</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="25">
         <v>45016</v>
       </c>
       <c r="E11">
@@ -8614,13 +13499,13 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" t="s">
         <v>143</v>
       </c>
       <c r="C12">
         <v>124560000</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="25">
         <v>45108</v>
       </c>
       <c r="E12">
@@ -8631,13 +13516,13 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" t="s">
         <v>144</v>
       </c>
       <c r="C13">
         <v>110682000</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="25">
         <v>45163</v>
       </c>
       <c r="E13">
@@ -8648,13 +13533,13 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" t="s">
         <v>145</v>
       </c>
       <c r="C14">
         <v>105223000</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="25">
         <v>45163</v>
       </c>
       <c r="E14">
@@ -8665,13 +13550,13 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" t="s">
         <v>146</v>
       </c>
       <c r="C15">
         <v>105163988</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="25">
         <v>44743</v>
       </c>
       <c r="E15">
@@ -8682,13 +13567,13 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" t="s">
         <v>147</v>
       </c>
       <c r="C16">
         <v>100000000</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="25">
         <v>45017</v>
       </c>
       <c r="E16">
@@ -8699,13 +13584,13 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" t="s">
         <v>148</v>
       </c>
       <c r="C17">
         <v>95370000</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="25">
         <v>43647</v>
       </c>
       <c r="E17">
@@ -8716,13 +13601,13 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" t="s">
         <v>149</v>
       </c>
       <c r="C18">
         <v>85279553</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="25">
         <v>44926</v>
       </c>
       <c r="E18">
@@ -8733,13 +13618,13 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" t="s">
         <v>150</v>
       </c>
       <c r="C19">
         <v>85227900</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D19" s="25">
         <v>45163</v>
       </c>
       <c r="E19">
@@ -8750,13 +13635,13 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" t="s">
         <v>151</v>
       </c>
       <c r="C20">
         <v>84432670</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="25">
         <v>45016</v>
       </c>
       <c r="E20">
@@ -8767,13 +13652,13 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" t="s">
         <v>152</v>
       </c>
       <c r="C21">
         <v>68263022</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D21" s="25">
         <v>44378</v>
       </c>
       <c r="E21">
@@ -8784,13 +13669,13 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" t="s">
         <v>153</v>
       </c>
       <c r="C22">
         <v>68128000</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="25">
         <v>45108</v>
       </c>
       <c r="E22">
@@ -8801,13 +13686,13 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" t="s">
         <v>154</v>
       </c>
       <c r="C23">
         <v>67026292</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="25">
         <v>44377</v>
       </c>
       <c r="E23">
@@ -8818,13 +13703,13 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" t="s">
         <v>155</v>
       </c>
       <c r="C24">
         <v>61741120</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D24" s="25">
         <v>44796</v>
       </c>
       <c r="E24">
@@ -8835,13 +13720,13 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" t="s">
         <v>156</v>
       </c>
       <c r="C25">
         <v>60604992</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D25" s="25">
         <v>44743</v>
       </c>
       <c r="E25">
@@ -8852,13 +13737,13 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" t="s">
         <v>157</v>
       </c>
       <c r="C26">
         <v>58784790</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26" s="25">
         <v>45077</v>
       </c>
       <c r="E26">
@@ -8869,13 +13754,13 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" t="s">
         <v>158</v>
       </c>
       <c r="C27">
         <v>55770232</v>
       </c>
-      <c r="D27" s="45">
+      <c r="D27" s="25">
         <v>44743</v>
       </c>
       <c r="E27">
@@ -8886,13 +13771,13 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" t="s">
         <v>159</v>
       </c>
       <c r="C28">
         <v>52215503</v>
       </c>
-      <c r="D28" s="45">
+      <c r="D28" s="25">
         <v>45107</v>
       </c>
       <c r="E28">
@@ -8903,13 +13788,13 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" t="s">
         <v>160</v>
       </c>
       <c r="C29">
         <v>51526000</v>
       </c>
-      <c r="D29" s="45">
+      <c r="D29" s="25">
         <v>44927</v>
       </c>
       <c r="E29">
@@ -8920,13 +13805,13 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" t="s">
         <v>161</v>
       </c>
       <c r="C30">
         <v>51439038</v>
       </c>
-      <c r="D30" s="45">
+      <c r="D30" s="25">
         <v>44926</v>
       </c>
       <c r="E30">
@@ -8937,13 +13822,13 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" t="s">
         <v>162</v>
       </c>
       <c r="C31">
         <v>48345223</v>
       </c>
-      <c r="D31" s="45">
+      <c r="D31" s="25">
         <v>45108</v>
       </c>
       <c r="E31">
@@ -8954,13 +13839,13 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" t="s">
         <v>163</v>
       </c>
       <c r="C32">
         <v>46044703</v>
       </c>
-      <c r="D32" s="45">
+      <c r="D32" s="25">
         <v>44699</v>
       </c>
       <c r="E32">
@@ -8971,13 +13856,13 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" t="s">
         <v>164</v>
       </c>
       <c r="C33">
         <v>45400000</v>
       </c>
-      <c r="D33" s="45">
+      <c r="D33" s="25">
         <v>44562</v>
       </c>
       <c r="E33">
@@ -8988,13 +13873,13 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" t="s">
         <v>165</v>
       </c>
       <c r="C34">
         <v>43324000</v>
       </c>
-      <c r="D34" s="45">
+      <c r="D34" s="25">
         <v>45108</v>
       </c>
       <c r="E34">
@@ -9005,13 +13890,13 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" t="s">
         <v>166</v>
       </c>
       <c r="C35">
         <v>42885900</v>
       </c>
-      <c r="D35" s="45">
+      <c r="D35" s="25">
         <v>44378</v>
       </c>
       <c r="E35">
@@ -9022,13 +13907,13 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" t="s">
         <v>167</v>
       </c>
       <c r="C36">
         <v>41984500</v>
       </c>
-      <c r="D36" s="45">
+      <c r="D36" s="25">
         <v>43282</v>
       </c>
       <c r="E36">
@@ -9039,13 +13924,13 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="44" t="s">
+      <c r="B37" t="s">
         <v>168</v>
       </c>
       <c r="C37">
         <v>41130432</v>
       </c>
-      <c r="D37" s="45">
+      <c r="D37" s="25">
         <v>44593</v>
       </c>
       <c r="E37">
@@ -9056,13 +13941,13 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" t="s">
         <v>169</v>
       </c>
       <c r="C38">
         <v>40276000</v>
       </c>
-      <c r="D38" s="45">
+      <c r="D38" s="25">
         <v>45163</v>
       </c>
       <c r="E38">
@@ -9073,13 +13958,13 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" t="s">
         <v>170</v>
       </c>
       <c r="C39">
         <v>37706000</v>
       </c>
-      <c r="D39" s="45">
+      <c r="D39" s="25">
         <v>45077</v>
       </c>
       <c r="E39">
@@ -9090,13 +13975,13 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="44" t="s">
+      <c r="B40" t="s">
         <v>171</v>
       </c>
       <c r="C40">
         <v>37074400</v>
       </c>
-      <c r="D40" s="45">
+      <c r="D40" s="25">
         <v>45163</v>
       </c>
       <c r="E40">
@@ -9107,13 +13992,13 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" t="s">
         <v>172</v>
       </c>
       <c r="C41">
         <v>36197788</v>
       </c>
-      <c r="D41" s="45">
+      <c r="D41" s="25">
         <v>45017</v>
       </c>
       <c r="E41">
@@ -9124,13 +14009,13 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="44" t="s">
+      <c r="B42" t="s">
         <v>173</v>
       </c>
       <c r="C42">
         <v>34262840</v>
       </c>
-      <c r="D42" s="45">
+      <c r="D42" s="25">
         <v>44927</v>
       </c>
       <c r="E42">
@@ -9141,13 +14026,13 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B43" t="s">
         <v>174</v>
       </c>
       <c r="C43">
         <v>33396698</v>
       </c>
-      <c r="D43" s="45">
+      <c r="D43" s="25">
         <v>44743</v>
       </c>
       <c r="E43">
@@ -9158,13 +14043,13 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" t="s">
         <v>175</v>
       </c>
       <c r="C44">
         <v>33200000</v>
       </c>
-      <c r="D44" s="45">
+      <c r="D44" s="25">
         <v>45153</v>
       </c>
       <c r="E44">
@@ -9175,13 +14060,13 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="44" t="s">
+      <c r="B45" t="s">
         <v>176</v>
       </c>
       <c r="C45">
         <v>33086278</v>
       </c>
-      <c r="D45" s="45">
+      <c r="D45" s="25">
         <v>44742</v>
       </c>
       <c r="E45">
@@ -9192,13 +14077,13 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="44" t="s">
+      <c r="B46" t="s">
         <v>177</v>
       </c>
       <c r="C46">
         <v>32419747</v>
       </c>
-      <c r="D46" s="45">
+      <c r="D46" s="25">
         <v>44743</v>
       </c>
       <c r="E46">
@@ -9209,13 +14094,13 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="44" t="s">
+      <c r="B47" t="s">
         <v>178</v>
       </c>
       <c r="C47">
         <v>32175224</v>
       </c>
-      <c r="D47" s="45">
+      <c r="D47" s="25">
         <v>44691</v>
       </c>
       <c r="E47">
@@ -9226,13 +14111,13 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="44" t="s">
+      <c r="B48" t="s">
         <v>179</v>
       </c>
       <c r="C48">
         <v>31890000</v>
       </c>
-      <c r="D48" s="45">
+      <c r="D48" s="25">
         <v>44743</v>
       </c>
       <c r="E48">
@@ -9243,13 +14128,13 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="44" t="s">
+      <c r="B49" t="s">
         <v>180</v>
       </c>
       <c r="C49">
         <v>30832019</v>
       </c>
-      <c r="D49" s="45">
+      <c r="D49" s="25">
         <v>44374</v>
       </c>
       <c r="E49">
@@ -9260,13 +14145,13 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="44" t="s">
+      <c r="B50" t="s">
         <v>181</v>
       </c>
       <c r="C50">
         <v>29389150</v>
       </c>
-      <c r="D50" s="45">
+      <c r="D50" s="25">
         <v>44544</v>
       </c>
       <c r="E50">
@@ -9277,13 +14162,13 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="B51" t="s">
         <v>182</v>
       </c>
       <c r="C51">
         <v>29164578</v>
       </c>
-      <c r="D51" s="45">
+      <c r="D51" s="25">
         <v>44525</v>
       </c>
       <c r="E51">
@@ -9294,13 +14179,13 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="44" t="s">
+      <c r="B52" t="s">
         <v>183</v>
       </c>
       <c r="C52">
         <v>28302000</v>
       </c>
-      <c r="D52" s="45">
+      <c r="D52" s="25">
         <v>43646</v>
       </c>
       <c r="E52">
@@ -9311,13 +14196,13 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="44" t="s">
+      <c r="B53" t="s">
         <v>184</v>
       </c>
       <c r="C53">
         <v>26923353</v>
       </c>
-      <c r="D53" s="45">
+      <c r="D53" s="25">
         <v>44378</v>
       </c>
       <c r="E53">
@@ -9328,13 +14213,13 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="44" t="s">
+      <c r="B54" t="s">
         <v>185</v>
       </c>
       <c r="C54">
         <v>26705200</v>
       </c>
-      <c r="D54" s="45">
+      <c r="D54" s="25">
         <v>45163</v>
       </c>
       <c r="E54">
@@ -9345,13 +14230,13 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="44" t="s">
+      <c r="B55" t="s">
         <v>186</v>
       </c>
       <c r="C55">
         <v>25660000</v>
       </c>
-      <c r="D55" s="45">
+      <c r="D55" s="25">
         <v>44378</v>
       </c>
       <c r="E55">
@@ -9362,13 +14247,13 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="44" t="s">
+      <c r="B56" t="s">
         <v>187</v>
       </c>
       <c r="C56">
         <v>24348251</v>
       </c>
-      <c r="D56" s="45">
+      <c r="D56" s="25">
         <v>43647</v>
       </c>
       <c r="E56">
@@ -9379,13 +14264,13 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="44" t="s">
+      <c r="B57" t="s">
         <v>188</v>
       </c>
       <c r="C57">
         <v>24112753</v>
       </c>
-      <c r="D57" s="45">
+      <c r="D57" s="25">
         <v>44378</v>
       </c>
       <c r="E57">
@@ -9396,13 +14281,13 @@
       <c r="A58" t="s">
         <v>189</v>
       </c>
-      <c r="B58" s="44" t="s">
+      <c r="B58" t="s">
         <v>190</v>
       </c>
       <c r="C58">
         <v>23373283</v>
       </c>
-      <c r="D58" s="45">
+      <c r="D58" s="25">
         <v>45107</v>
       </c>
       <c r="E58">
@@ -9413,13 +14298,13 @@
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" s="44" t="s">
+      <c r="B59" t="s">
         <v>191</v>
       </c>
       <c r="C59">
         <v>23293699</v>
       </c>
-      <c r="D59" s="45">
+      <c r="D59" s="25">
         <v>45108</v>
       </c>
       <c r="E59">
@@ -9430,13 +14315,13 @@
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" s="44" t="s">
+      <c r="B60" t="s">
         <v>192</v>
       </c>
       <c r="C60">
         <v>22923000</v>
       </c>
-      <c r="D60" s="45">
+      <c r="D60" s="25">
         <v>44378</v>
       </c>
       <c r="E60">
@@ -9447,13 +14332,13 @@
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" s="44" t="s">
+      <c r="B61" t="s">
         <v>193</v>
       </c>
       <c r="C61">
         <v>22185654</v>
       </c>
-      <c r="D61" s="45">
+      <c r="D61" s="25">
         <v>44743</v>
       </c>
       <c r="E61">
@@ -9464,13 +14349,13 @@
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" s="44" t="s">
+      <c r="B62" t="s">
         <v>194</v>
       </c>
       <c r="C62">
         <v>22181000</v>
       </c>
-      <c r="D62" s="45">
+      <c r="D62" s="25">
         <v>44743</v>
       </c>
       <c r="E62">
@@ -9481,13 +14366,13 @@
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" s="44" t="s">
+      <c r="B63" t="s">
         <v>195</v>
       </c>
       <c r="C63">
         <v>21507723</v>
       </c>
-      <c r="D63" s="45">
+      <c r="D63" s="25">
         <v>44743</v>
       </c>
       <c r="E63">
@@ -9498,13 +14383,13 @@
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" s="44" t="s">
+      <c r="B64" t="s">
         <v>196</v>
       </c>
       <c r="C64">
         <v>19960889</v>
       </c>
-      <c r="D64" s="45">
+      <c r="D64" s="25">
         <v>45107</v>
       </c>
       <c r="E64">
@@ -9515,13 +14400,13 @@
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" s="44" t="s">
+      <c r="B65" t="s">
         <v>197</v>
       </c>
       <c r="C65">
         <v>19899377</v>
       </c>
-      <c r="D65" s="45">
+      <c r="D65" s="25">
         <v>45108</v>
       </c>
       <c r="E65">
@@ -9532,13 +14417,13 @@
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" s="44" t="s">
+      <c r="B66" t="s">
         <v>198</v>
       </c>
       <c r="C66">
         <v>19610769</v>
       </c>
-      <c r="D66" s="45">
+      <c r="D66" s="25">
         <v>44818</v>
       </c>
       <c r="E66">
@@ -9549,13 +14434,13 @@
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" s="44" t="s">
+      <c r="B67" t="s">
         <v>199</v>
       </c>
       <c r="C67">
         <v>19053815</v>
       </c>
-      <c r="D67" s="45">
+      <c r="D67" s="25">
         <v>44759</v>
       </c>
       <c r="E67">
@@ -9566,13 +14451,13 @@
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" s="44" t="s">
+      <c r="B68" t="s">
         <v>200</v>
       </c>
       <c r="C68">
         <v>18354600</v>
       </c>
-      <c r="D68" s="45">
+      <c r="D68" s="25">
         <v>45163</v>
       </c>
       <c r="E68">
@@ -9583,13 +14468,13 @@
       <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69" s="44" t="s">
+      <c r="B69" t="s">
         <v>201</v>
       </c>
       <c r="C69">
         <v>18143379</v>
       </c>
-      <c r="D69" s="45">
+      <c r="D69" s="25">
         <v>45108</v>
       </c>
       <c r="E69">
@@ -9600,13 +14485,13 @@
       <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70" s="44" t="s">
+      <c r="B70" t="s">
         <v>202</v>
       </c>
       <c r="C70">
         <v>17904300</v>
       </c>
-      <c r="D70" s="45">
+      <c r="D70" s="25">
         <v>45163</v>
       </c>
       <c r="E70">
@@ -9617,13 +14502,13 @@
       <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" s="44" t="s">
+      <c r="B71" t="s">
         <v>203</v>
       </c>
       <c r="C71">
         <v>17223497</v>
       </c>
-      <c r="D71" s="45">
+      <c r="D71" s="25">
         <v>44378</v>
       </c>
       <c r="E71">
@@ -9634,13 +14519,13 @@
       <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72" s="44" t="s">
+      <c r="B72" t="s">
         <v>204</v>
       </c>
       <c r="C72">
         <v>17109746</v>
       </c>
-      <c r="D72" s="45">
+      <c r="D72" s="25">
         <v>44378</v>
       </c>
       <c r="E72">
@@ -9651,13 +14536,13 @@
       <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73" s="44" t="s">
+      <c r="B73" t="s">
         <v>205</v>
       </c>
       <c r="C73">
         <v>16818391</v>
       </c>
-      <c r="D73" s="45">
+      <c r="D73" s="25">
         <v>44378</v>
       </c>
       <c r="E73">
@@ -9668,13 +14553,13 @@
       <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74" s="44" t="s">
+      <c r="B74" t="s">
         <v>206</v>
       </c>
       <c r="C74">
         <v>15552211</v>
       </c>
-      <c r="D74" s="45">
+      <c r="D74" s="25">
         <v>43527</v>
       </c>
       <c r="E74">
@@ -9685,13 +14570,13 @@
       <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75" s="44" t="s">
+      <c r="B75" t="s">
         <v>207</v>
       </c>
       <c r="C75">
         <v>15178979</v>
       </c>
-      <c r="D75" s="45">
+      <c r="D75" s="25">
         <v>44671</v>
       </c>
       <c r="E75">
@@ -9702,13 +14587,13 @@
       <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76" s="44" t="s">
+      <c r="B76" t="s">
         <v>208</v>
       </c>
       <c r="C76">
         <v>13261638</v>
       </c>
-      <c r="D76" s="45">
+      <c r="D76" s="25">
         <v>44743</v>
       </c>
       <c r="E76">
@@ -9719,13 +14604,13 @@
       <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77" s="44" t="s">
+      <c r="B77" t="s">
         <v>209</v>
       </c>
       <c r="C77">
         <v>13249924</v>
       </c>
-      <c r="D77" s="45">
+      <c r="D77" s="25">
         <v>44013</v>
       </c>
       <c r="E77">
@@ -9736,13 +14621,13 @@
       <c r="A78">
         <v>76</v>
       </c>
-      <c r="B78" s="44" t="s">
+      <c r="B78" t="s">
         <v>210</v>
       </c>
       <c r="C78">
         <v>13246394</v>
       </c>
-      <c r="D78" s="45">
+      <c r="D78" s="25">
         <v>44788</v>
       </c>
       <c r="E78">
@@ -9753,13 +14638,13 @@
       <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79" s="44" t="s">
+      <c r="B79" t="s">
         <v>211</v>
       </c>
       <c r="C79">
         <v>12837740</v>
       </c>
-      <c r="D79" s="45">
+      <c r="D79" s="25">
         <v>44743</v>
       </c>
       <c r="E79">
@@ -9770,13 +14655,13 @@
       <c r="A80">
         <v>78</v>
       </c>
-      <c r="B80" s="44" t="s">
+      <c r="B80" t="s">
         <v>212</v>
       </c>
       <c r="C80">
         <v>12606998</v>
       </c>
-      <c r="D80" s="45">
+      <c r="D80" s="25">
         <v>45108</v>
       </c>
       <c r="E80">
@@ -9787,13 +14672,13 @@
       <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81" s="44" t="s">
+      <c r="B81" t="s">
         <v>213</v>
       </c>
       <c r="C81">
         <v>12006031</v>
       </c>
-      <c r="D81" s="45">
+      <c r="D81" s="25">
         <v>44743</v>
       </c>
       <c r="E81">
@@ -9804,13 +14689,13 @@
       <c r="A82">
         <v>80</v>
       </c>
-      <c r="B82" s="44" t="s">
+      <c r="B82" t="s">
         <v>214</v>
       </c>
       <c r="C82">
         <v>11803588</v>
       </c>
-      <c r="D82" s="45">
+      <c r="D82" s="25">
         <v>44562</v>
       </c>
       <c r="E82">
@@ -9821,13 +14706,13 @@
       <c r="A83">
         <v>81</v>
       </c>
-      <c r="B83" s="44" t="s">
+      <c r="B83" t="s">
         <v>215</v>
       </c>
       <c r="C83">
         <v>11781559</v>
       </c>
-      <c r="D83" s="45">
+      <c r="D83" s="25">
         <v>44378</v>
       </c>
       <c r="E83">
@@ -9838,13 +14723,13 @@
       <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84" s="44" t="s">
+      <c r="B84" t="s">
         <v>216</v>
       </c>
       <c r="C84">
         <v>11765225</v>
       </c>
-      <c r="D84" s="45">
+      <c r="D84" s="25">
         <v>45078</v>
       </c>
       <c r="E84">
@@ -9855,13 +14740,13 @@
       <c r="A85">
         <v>83</v>
       </c>
-      <c r="B85" s="44" t="s">
+      <c r="B85" t="s">
         <v>217</v>
       </c>
       <c r="C85">
         <v>11743017</v>
       </c>
-      <c r="D85" s="45">
+      <c r="D85" s="25">
         <v>44013</v>
       </c>
       <c r="E85">
@@ -9872,13 +14757,13 @@
       <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86" s="44" t="s">
+      <c r="B86" t="s">
         <v>218</v>
       </c>
       <c r="C86">
         <v>11459000</v>
       </c>
-      <c r="D86" s="45">
+      <c r="D86" s="25">
         <v>45163</v>
       </c>
       <c r="E86">
@@ -9889,13 +14774,13 @@
       <c r="A87">
         <v>85</v>
       </c>
-      <c r="B87" s="44" t="s">
+      <c r="B87" t="s">
         <v>219</v>
       </c>
       <c r="C87">
         <v>11089511</v>
       </c>
-      <c r="D87" s="45">
+      <c r="D87" s="25">
         <v>44926</v>
       </c>
       <c r="E87">
@@ -9906,13 +14791,13 @@
       <c r="A88">
         <v>86</v>
       </c>
-      <c r="B88" s="44" t="s">
+      <c r="B88" t="s">
         <v>220</v>
       </c>
       <c r="C88">
         <v>10827529</v>
       </c>
-      <c r="D88" s="45">
+      <c r="D88" s="25">
         <v>44927</v>
       </c>
       <c r="E88">
@@ -9923,13 +14808,13 @@
       <c r="A89">
         <v>87</v>
       </c>
-      <c r="B89" s="44" t="s">
+      <c r="B89" t="s">
         <v>221</v>
       </c>
       <c r="C89">
         <v>10545310</v>
       </c>
-      <c r="D89" s="45">
+      <c r="D89" s="25">
         <v>45108</v>
       </c>
       <c r="E89">
@@ -9940,13 +14825,13 @@
       <c r="A90">
         <v>88</v>
       </c>
-      <c r="B90" s="44" t="s">
+      <c r="B90" t="s">
         <v>222</v>
       </c>
       <c r="C90">
         <v>10535535</v>
       </c>
-      <c r="D90" s="45">
+      <c r="D90" s="25">
         <v>44378</v>
       </c>
       <c r="E90">
@@ -9957,13 +14842,13 @@
       <c r="A91">
         <v>89</v>
       </c>
-      <c r="B91" s="44" t="s">
+      <c r="B91" t="s">
         <v>223</v>
       </c>
       <c r="C91">
         <v>10482487</v>
       </c>
-      <c r="D91" s="45">
+      <c r="D91" s="25">
         <v>44523</v>
       </c>
       <c r="E91">
@@ -9974,13 +14859,13 @@
       <c r="A92">
         <v>90</v>
       </c>
-      <c r="B92" s="44" t="s">
+      <c r="B92" t="s">
         <v>224</v>
       </c>
       <c r="C92">
         <v>10467366</v>
       </c>
-      <c r="D92" s="45">
+      <c r="D92" s="25">
         <v>44926</v>
       </c>
       <c r="E92">
@@ -9991,13 +14876,13 @@
       <c r="A93">
         <v>91</v>
       </c>
-      <c r="B93" s="44" t="s">
+      <c r="B93" t="s">
         <v>225</v>
       </c>
       <c r="C93">
         <v>10135373</v>
       </c>
-      <c r="D93" s="45">
+      <c r="D93" s="25">
         <v>44986</v>
       </c>
       <c r="E93">
@@ -10008,13 +14893,13 @@
       <c r="A94">
         <v>92</v>
       </c>
-      <c r="B94" s="44" t="s">
+      <c r="B94" t="s">
         <v>226</v>
       </c>
       <c r="C94">
         <v>10077600</v>
       </c>
-      <c r="D94" s="45">
+      <c r="D94" s="25">
         <v>44927</v>
       </c>
       <c r="E94">
@@ -10025,13 +14910,13 @@
       <c r="A95">
         <v>93</v>
       </c>
-      <c r="B95" s="44" t="s">
+      <c r="B95" t="s">
         <v>227</v>
       </c>
       <c r="C95">
         <v>9756300</v>
       </c>
-      <c r="D95" s="45">
+      <c r="D95" s="25">
         <v>45107</v>
       </c>
       <c r="E95">
@@ -10042,13 +14927,13 @@
       <c r="A96">
         <v>94</v>
       </c>
-      <c r="B96" s="44" t="s">
+      <c r="B96" t="s">
         <v>228</v>
       </c>
       <c r="C96">
         <v>9745149</v>
       </c>
-      <c r="D96" s="45">
+      <c r="D96" s="25">
         <v>45108</v>
       </c>
       <c r="E96">
@@ -10059,13 +14944,13 @@
       <c r="A97">
         <v>95</v>
       </c>
-      <c r="B97" s="44" t="s">
+      <c r="B97" t="s">
         <v>229</v>
       </c>
       <c r="C97">
         <v>9597085</v>
       </c>
-      <c r="D97" s="45">
+      <c r="D97" s="25">
         <v>44927</v>
       </c>
       <c r="E97">
@@ -10076,13 +14961,13 @@
       <c r="A98">
         <v>96</v>
       </c>
-      <c r="B98" s="44" t="s">
+      <c r="B98" t="s">
         <v>230</v>
       </c>
       <c r="C98">
         <v>9282410</v>
       </c>
-      <c r="D98" s="45">
+      <c r="D98" s="25">
         <v>44196</v>
       </c>
       <c r="E98">
@@ -10093,13 +14978,13 @@
       <c r="A99">
         <v>97</v>
       </c>
-      <c r="B99" s="44" t="s">
+      <c r="B99" t="s">
         <v>231</v>
       </c>
       <c r="C99">
         <v>9200617</v>
       </c>
-      <c r="D99" s="45">
+      <c r="D99" s="25">
         <v>44927</v>
       </c>
       <c r="E99">
@@ -10110,13 +14995,13 @@
       <c r="A100">
         <v>98</v>
       </c>
-      <c r="B100" s="44" t="s">
+      <c r="B100" t="s">
         <v>232</v>
       </c>
       <c r="C100">
         <v>9129652</v>
       </c>
-      <c r="D100" s="45">
+      <c r="D100" s="25">
         <v>45108</v>
       </c>
       <c r="E100">
@@ -10127,13 +15012,13 @@
       <c r="A101">
         <v>99</v>
       </c>
-      <c r="B101" s="44" t="s">
+      <c r="B101" t="s">
         <v>233</v>
       </c>
       <c r="C101">
         <v>8865270</v>
       </c>
-      <c r="D101" s="45">
+      <c r="D101" s="25">
         <v>45016</v>
       </c>
       <c r="E101">
@@ -10144,13 +15029,13 @@
       <c r="A102">
         <v>100</v>
       </c>
-      <c r="B102" s="44" t="s">
+      <c r="B102" t="s">
         <v>234</v>
       </c>
       <c r="C102">
         <v>8494260</v>
       </c>
-      <c r="D102" s="45">
+      <c r="D102" s="25">
         <v>44743</v>
       </c>
       <c r="E102">
@@ -10165,12 +15050,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93375F1F-8022-4CEF-A4B8-998D611C8B3F}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Excel/Assignment/assignment.xlsx
+++ b/Excel/Assignment/assignment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2dcf2473134df4d/Desktop/data analytics assigment/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2dcf2473134df4d/Documents/GitHub/jay_patel/Excel/Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="467" documentId="13_ncr:1_{59E8975F-FF11-4ECE-8A01-E29E66D21501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3408C1EB-396D-4679-80BC-2D0E9B15FCD7}"/>
+  <xr:revisionPtr revIDLastSave="472" documentId="13_ncr:1_{59E8975F-FF11-4ECE-8A01-E29E66D21501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75AC19DD-9E83-4275-B9EE-76CAF14D3089}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1,3,5,6,8,12" sheetId="4" r:id="rId1"/>
@@ -593,7 +593,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1966,15 +1966,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.0000_ ;_-[$$-409]* \-#,##0.0000\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="172" formatCode="_-[$$-409]* #,##0.0000_ ;_-[$$-409]* \-#,##0.0000\ ;_-[$$-409]* &quot;-&quot;????_ ;_-@_ "/>
-    <numFmt numFmtId="174" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
+    <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0.0000_ ;_-[$$-409]* \-#,##0.0000\ ;_-[$$-409]* &quot;-&quot;????_ ;_-@_ "/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -2603,7 +2601,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -2660,97 +2658,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2758,8 +2673,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2836,34 +2750,117 @@
     <xf numFmtId="3" fontId="15" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{357CEF9E-15AE-46B3-B00B-999AE08EF4A3}"/>
@@ -2904,10 +2901,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3215,7 +3208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53CC425E-A369-44AD-A12E-08F9DD95CEA2}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -5586,78 +5579,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="115" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="115" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="117" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="107" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="L1" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="N1" s="112" t="s">
         <v>127</v>
       </c>
-      <c r="O1" s="59" t="s">
+      <c r="O1" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="P1" s="60" t="s">
+      <c r="P1" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="Q1" s="59" t="s">
+      <c r="Q1" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="R1" s="50"/>
+      <c r="R1" s="100"/>
     </row>
     <row r="2" spans="1:18" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="50"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="100"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
@@ -9561,6 +9554,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="G1:G2"/>
@@ -9571,14 +9572,6 @@
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="B13:B62">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -9618,34 +9611,34 @@
       <c r="A1" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="68" t="s">
         <v>282</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="69" t="s">
         <v>284</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="69" t="s">
         <v>286</v>
       </c>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="112" t="s">
+      <c r="H1" s="78" t="s">
         <v>237</v>
       </c>
-      <c r="I1" s="113" t="s">
+      <c r="I1" s="79" t="s">
         <v>238</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="K1" s="102" t="s">
+      <c r="K1" s="68" t="s">
         <v>283</v>
       </c>
       <c r="L1" s="10" t="s">
@@ -9660,10 +9653,10 @@
       <c r="O1" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="P1" s="105" t="s">
+      <c r="P1" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="Q1" s="106" t="s">
+      <c r="Q1" s="72" t="s">
         <v>281</v>
       </c>
     </row>
@@ -9671,37 +9664,37 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="94">
+      <c r="B2" s="60">
         <v>56815</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="61" t="s">
         <v>260</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="62" t="s">
         <v>287</v>
       </c>
-      <c r="E2" s="96">
+      <c r="E2" s="62">
         <v>35</v>
       </c>
-      <c r="F2" s="96" t="s">
+      <c r="F2" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="G2" s="97" t="s">
+      <c r="G2" s="63" t="s">
         <v>262</v>
       </c>
-      <c r="H2" s="114" t="s">
+      <c r="H2" s="80" t="s">
         <v>239</v>
       </c>
-      <c r="I2" s="115">
+      <c r="I2" s="81">
         <v>759</v>
       </c>
-      <c r="J2" s="120" t="s">
+      <c r="J2" s="86" t="s">
         <v>261</v>
       </c>
-      <c r="K2" s="98">
+      <c r="K2" s="64">
         <v>13836</v>
       </c>
-      <c r="L2" s="99">
+      <c r="L2" s="65">
         <v>8000</v>
       </c>
       <c r="M2" s="7" t="s">
@@ -9710,18 +9703,18 @@
       <c r="N2" s="7">
         <v>10</v>
       </c>
-      <c r="O2" s="95">
+      <c r="O2" s="61">
         <v>28</v>
       </c>
-      <c r="P2" s="100">
+      <c r="P2" s="66">
         <v>44197</v>
       </c>
-      <c r="Q2" s="101">
+      <c r="Q2" s="67">
         <v>1.3671</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="92">
+      <c r="A3" s="58">
         <v>2</v>
       </c>
       <c r="B3" s="30">
@@ -9742,13 +9735,13 @@
       <c r="G3" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="H3" s="116" t="s">
+      <c r="H3" s="82" t="s">
         <v>240</v>
       </c>
-      <c r="I3" s="117">
+      <c r="I3" s="83">
         <v>200</v>
       </c>
-      <c r="J3" s="121" t="s">
+      <c r="J3" s="87" t="s">
         <v>264</v>
       </c>
       <c r="K3" s="31">
@@ -9769,12 +9762,12 @@
       <c r="P3" s="32">
         <v>44200</v>
       </c>
-      <c r="Q3" s="93">
+      <c r="Q3" s="59">
         <v>1.3569</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="92">
+      <c r="A4" s="58">
         <v>3</v>
       </c>
       <c r="B4" s="30">
@@ -9795,13 +9788,13 @@
       <c r="G4" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="H4" s="116" t="s">
+      <c r="H4" s="82" t="s">
         <v>241</v>
       </c>
-      <c r="I4" s="117">
+      <c r="I4" s="83">
         <v>42</v>
       </c>
-      <c r="J4" s="121" t="s">
+      <c r="J4" s="87" t="s">
         <v>267</v>
       </c>
       <c r="K4" s="31">
@@ -9822,12 +9815,12 @@
       <c r="P4" s="32">
         <v>44201</v>
       </c>
-      <c r="Q4" s="93">
+      <c r="Q4" s="59">
         <v>1.3624000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="92">
+      <c r="A5" s="58">
         <v>4</v>
       </c>
       <c r="B5" s="30">
@@ -9848,13 +9841,13 @@
       <c r="G5" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="H5" s="116" t="s">
+      <c r="H5" s="82" t="s">
         <v>242</v>
       </c>
-      <c r="I5" s="117">
+      <c r="I5" s="83">
         <v>423</v>
       </c>
-      <c r="J5" s="121" t="s">
+      <c r="J5" s="87" t="s">
         <v>269</v>
       </c>
       <c r="K5" s="31">
@@ -9875,12 +9868,12 @@
       <c r="P5" s="32">
         <v>44202</v>
       </c>
-      <c r="Q5" s="93">
+      <c r="Q5" s="59">
         <v>1.3607</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="92">
+      <c r="A6" s="58">
         <v>5</v>
       </c>
       <c r="B6" s="30">
@@ -9901,13 +9894,13 @@
       <c r="G6" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="H6" s="116" t="s">
+      <c r="H6" s="82" t="s">
         <v>243</v>
       </c>
-      <c r="I6" s="117">
+      <c r="I6" s="83">
         <v>200</v>
       </c>
-      <c r="J6" s="121" t="s">
+      <c r="J6" s="87" t="s">
         <v>267</v>
       </c>
       <c r="K6" s="31">
@@ -9928,12 +9921,12 @@
       <c r="P6" s="32">
         <v>44203</v>
       </c>
-      <c r="Q6" s="93">
+      <c r="Q6" s="59">
         <v>1.3563000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="92">
+      <c r="A7" s="58">
         <v>6</v>
       </c>
       <c r="B7" s="30">
@@ -9954,13 +9947,13 @@
       <c r="G7" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="H7" s="116" t="s">
+      <c r="H7" s="82" t="s">
         <v>244</v>
       </c>
-      <c r="I7" s="117">
+      <c r="I7" s="83">
         <v>50</v>
       </c>
-      <c r="J7" s="121" t="s">
+      <c r="J7" s="87" t="s">
         <v>264</v>
       </c>
       <c r="K7" s="31">
@@ -9981,12 +9974,12 @@
       <c r="P7" s="32">
         <v>44204</v>
       </c>
-      <c r="Q7" s="93">
+      <c r="Q7" s="59">
         <v>1.3563000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="92">
+      <c r="A8" s="58">
         <v>7</v>
       </c>
       <c r="B8" s="30">
@@ -10007,13 +10000,13 @@
       <c r="G8" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="H8" s="116" t="s">
+      <c r="H8" s="82" t="s">
         <v>245</v>
       </c>
-      <c r="I8" s="117">
+      <c r="I8" s="83">
         <v>700</v>
       </c>
-      <c r="J8" s="121" t="s">
+      <c r="J8" s="87" t="s">
         <v>267</v>
       </c>
       <c r="K8" s="31">
@@ -10034,12 +10027,12 @@
       <c r="P8" s="32">
         <v>44207</v>
       </c>
-      <c r="Q8" s="93">
+      <c r="Q8" s="59">
         <v>1.3513999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="92">
+      <c r="A9" s="58">
         <v>8</v>
       </c>
       <c r="B9" s="30">
@@ -10060,13 +10053,13 @@
       <c r="G9" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="H9" s="116" t="s">
+      <c r="H9" s="82" t="s">
         <v>246</v>
       </c>
-      <c r="I9" s="117">
+      <c r="I9" s="83">
         <v>450</v>
       </c>
-      <c r="J9" s="121" t="s">
+      <c r="J9" s="87" t="s">
         <v>261</v>
       </c>
       <c r="K9" s="31">
@@ -10087,12 +10080,12 @@
       <c r="P9" s="32">
         <v>44208</v>
       </c>
-      <c r="Q9" s="93">
+      <c r="Q9" s="59">
         <v>1.3663000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="92">
+      <c r="A10" s="58">
         <v>9</v>
       </c>
       <c r="B10" s="30">
@@ -10113,13 +10106,13 @@
       <c r="G10" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="H10" s="116" t="s">
+      <c r="H10" s="82" t="s">
         <v>247</v>
       </c>
-      <c r="I10" s="117">
+      <c r="I10" s="83">
         <v>605</v>
       </c>
-      <c r="J10" s="121" t="s">
+      <c r="J10" s="87" t="s">
         <v>269</v>
       </c>
       <c r="K10" s="31">
@@ -10140,98 +10133,85 @@
       <c r="P10" s="32">
         <v>44209</v>
       </c>
-      <c r="Q10" s="93">
+      <c r="Q10" s="59">
         <v>1.3636999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="107">
+      <c r="A11" s="73">
         <v>10</v>
       </c>
-      <c r="B11" s="108">
+      <c r="B11" s="74">
         <v>50695</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="75" t="s">
         <v>279</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="76" t="s">
         <v>289</v>
       </c>
-      <c r="E11" s="110">
+      <c r="E11" s="76">
         <v>33</v>
       </c>
-      <c r="F11" s="110" t="s">
+      <c r="F11" s="76" t="s">
         <v>298</v>
       </c>
-      <c r="G11" s="111" t="s">
+      <c r="G11" s="77" t="s">
         <v>280</v>
       </c>
-      <c r="H11" s="116" t="s">
+      <c r="H11" s="82" t="s">
         <v>248</v>
       </c>
-      <c r="I11" s="117">
+      <c r="I11" s="83">
         <v>240</v>
       </c>
-      <c r="J11" s="122" t="s">
+      <c r="J11" s="88" t="s">
         <v>264</v>
       </c>
-      <c r="K11" s="123">
+      <c r="K11" s="89">
         <v>15784</v>
       </c>
-      <c r="L11" s="124">
+      <c r="L11" s="90">
         <v>9000</v>
       </c>
-      <c r="M11" s="125" t="s">
+      <c r="M11" s="91" t="s">
         <v>255</v>
       </c>
-      <c r="N11" s="125">
+      <c r="N11" s="91">
         <v>6</v>
       </c>
-      <c r="O11" s="109">
+      <c r="O11" s="75">
         <v>15</v>
       </c>
-      <c r="P11" s="126">
+      <c r="P11" s="92">
         <v>44210</v>
       </c>
-      <c r="Q11" s="127">
+      <c r="Q11" s="93">
         <v>1.3687</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="66"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="116" t="s">
+      <c r="A12" s="46"/>
+      <c r="H12" s="82" t="s">
         <v>249</v>
       </c>
-      <c r="I12" s="117">
+      <c r="I12" s="83">
         <v>685</v>
       </c>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="65"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="118" t="s">
+      <c r="H13" s="84" t="s">
         <v>250</v>
       </c>
-      <c r="I13" s="119">
+      <c r="I13" s="85">
         <v>295</v>
       </c>
       <c r="J13" s="2"/>
@@ -10244,50 +10224,50 @@
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H14" s="90"/>
-      <c r="I14" s="91"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="57"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H15" s="82" t="s">
+      <c r="H15" s="49" t="s">
         <v>299</v>
       </c>
-      <c r="I15" s="84">
+      <c r="I15" s="51">
         <f>SUM(I2:I13)</f>
         <v>4649</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="63"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="124" t="s">
         <v>413</v>
       </c>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="84">
+      <c r="B20" s="125"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="51">
         <f>SUM(I2:I13)</f>
         <v>4649</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="65"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -10300,111 +10280,104 @@
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="55" t="s">
         <v>396</v>
       </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="63"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="44"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
+      <c r="A24" s="46"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="71" t="s">
+      <c r="A25" s="131" t="s">
         <v>397</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="85">
+      <c r="B25" s="131"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="52">
         <f>SUMIF(M2:M11,"Yes",L2:L11)</f>
         <v>79000</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="71" t="s">
+      <c r="A26" s="131" t="s">
         <v>398</v>
       </c>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="85">
+      <c r="B26" s="131"/>
+      <c r="C26" s="131"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="52">
         <f>SUMIF(M2:M11,"No",L2:L11)</f>
         <v>27000</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="131" t="s">
         <v>399</v>
       </c>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="85">
+      <c r="B27" s="131"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="52">
         <f>SUMIF(L2:L11,"&gt;10000",N2:N11)</f>
         <v>1028</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="131" t="s">
         <v>400</v>
       </c>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="85">
+      <c r="B28" s="131"/>
+      <c r="C28" s="131"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="52">
         <f>SUMIF(L2:L11,"&gt;10000")</f>
         <v>65000</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="71" t="s">
+      <c r="A29" s="131" t="s">
         <v>401</v>
       </c>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="85">
+      <c r="B29" s="131"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="52">
         <f>SUMIF(L2:L11,"&gt;9500")</f>
         <v>75000</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="65"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -10416,79 +10389,72 @@
     </row>
     <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="89" t="s">
+      <c r="A32" s="55" t="s">
         <v>402</v>
       </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="63"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="44"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="66"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
+      <c r="A33" s="46"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="131" t="s">
         <v>403</v>
       </c>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="85">
+      <c r="B34" s="131"/>
+      <c r="C34" s="131"/>
+      <c r="D34" s="131"/>
+      <c r="E34" s="131"/>
+      <c r="F34" s="131"/>
+      <c r="G34" s="131"/>
+      <c r="H34" s="131"/>
+      <c r="I34" s="52">
         <f>SUMIF(G2:G11,"USA",O2:O11)</f>
         <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="71" t="s">
+      <c r="A35" s="131" t="s">
         <v>404</v>
       </c>
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="85">
+      <c r="B35" s="131"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="131"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="131"/>
+      <c r="I35" s="52">
         <f>SUMIF(J2:J11,"Figure Skating",O2:O11)</f>
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="68" t="s">
+      <c r="A36" s="124" t="s">
         <v>405</v>
       </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="85">
+      <c r="B36" s="125"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="125"/>
+      <c r="H36" s="126"/>
+      <c r="I36" s="52">
         <f>SUMIF(G2:G11,"USA",O2:O11)+SUMIF(G2:G11,"jamaica",O2:O11)</f>
         <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="65"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -10500,127 +10466,93 @@
     </row>
     <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="61"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="63"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="44"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="72" t="s">
+      <c r="A40" s="127" t="s">
         <v>412</v>
       </c>
-      <c r="B40" s="73"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="74"/>
+      <c r="B40" s="128"/>
+      <c r="C40" s="128"/>
+      <c r="D40" s="128"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="128"/>
+      <c r="G40" s="128"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="129"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="75"/>
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="74"/>
+      <c r="A41" s="130"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="128"/>
+      <c r="D41" s="128"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="128"/>
+      <c r="G41" s="128"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="129"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="66"/>
-      <c r="B42" s="67"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
+      <c r="A42" s="46"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="66"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
+      <c r="A43" s="46"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="66"/>
-      <c r="B44" s="83" t="s">
+      <c r="A44" s="46"/>
+      <c r="B44" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="83" t="s">
+      <c r="C44" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="66"/>
-      <c r="B45" s="76">
+      <c r="A45" s="46"/>
+      <c r="B45" s="47">
         <v>44201</v>
       </c>
-      <c r="C45" s="86">
+      <c r="C45" s="53">
         <f>VLOOKUP(B45,P1:Q10,2,TRUE)</f>
         <v>1.3624000000000001</v>
       </c>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67"/>
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="66"/>
-      <c r="B46" s="77">
+      <c r="A46" s="46"/>
+      <c r="B46" s="48">
         <v>44204</v>
       </c>
-      <c r="C46" s="86">
+      <c r="C46" s="53">
         <f>VLOOKUP(B46,P2:Q11,2,TRUE)</f>
         <v>1.3563000000000001</v>
       </c>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="66"/>
-      <c r="B47" s="77">
+      <c r="A47" s="46"/>
+      <c r="B47" s="48">
         <v>44210</v>
       </c>
-      <c r="C47" s="86">
+      <c r="C47" s="53">
         <f>VLOOKUP(B47,P3:Q12,2,TRUE)</f>
         <v>1.3687</v>
       </c>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="65"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -10632,64 +10564,54 @@
     </row>
     <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="89" t="s">
+      <c r="A51" s="55" t="s">
         <v>406</v>
       </c>
-      <c r="B51" s="62"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="63"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="44"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="66"/>
-      <c r="B52" s="67"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
+      <c r="A52" s="46"/>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="78" t="s">
+      <c r="A53" s="122" t="s">
         <v>407</v>
       </c>
-      <c r="B53" s="79"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="87" t="str">
+      <c r="B53" s="123"/>
+      <c r="C53" s="123"/>
+      <c r="D53" s="123"/>
+      <c r="E53" s="121" t="str">
         <f>VLOOKUP(B2,A2:Q11,3,TRUE)</f>
         <v>Yelena Isinbayeva</v>
       </c>
-      <c r="F53" s="87"/>
+      <c r="F53" s="121"/>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="66"/>
-      <c r="B54" s="67"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
+      <c r="A54" s="46"/>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="80" t="s">
+      <c r="A55" s="119" t="s">
         <v>408</v>
       </c>
-      <c r="B55" s="81"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="87">
+      <c r="B55" s="120"/>
+      <c r="C55" s="120"/>
+      <c r="D55" s="120"/>
+      <c r="E55" s="121">
         <f>VLOOKUP(C10,C2:E11,3,0)</f>
         <v>45</v>
       </c>
-      <c r="F55" s="87"/>
+      <c r="F55" s="121"/>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="65"/>
+      <c r="A56" s="45"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -10699,64 +10621,52 @@
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="89" t="s">
+      <c r="A58" s="55" t="s">
         <v>409</v>
       </c>
-      <c r="B58" s="62"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="62"/>
-      <c r="F58" s="62"/>
-      <c r="G58" s="63"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="44"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="66"/>
-      <c r="B59" s="67"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
+      <c r="A59" s="46"/>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="78" t="s">
+      <c r="A60" s="122" t="s">
         <v>410</v>
       </c>
-      <c r="B60" s="79"/>
-      <c r="C60" s="79"/>
-      <c r="D60" s="79"/>
-      <c r="E60" s="79"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="88" t="str">
+      <c r="B60" s="123"/>
+      <c r="C60" s="123"/>
+      <c r="D60" s="123"/>
+      <c r="E60" s="123"/>
+      <c r="G60" s="54" t="str">
         <f>VLOOKUP(C3,C2:F11,4,0)</f>
         <v>Data Scientist</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="66"/>
-      <c r="B61" s="67"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
+      <c r="A61" s="46"/>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="78" t="s">
+      <c r="A62" s="122" t="s">
         <v>411</v>
       </c>
-      <c r="B62" s="79"/>
-      <c r="C62" s="79"/>
-      <c r="D62" s="79"/>
-      <c r="E62" s="79"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="88">
+      <c r="B62" s="123"/>
+      <c r="C62" s="123"/>
+      <c r="D62" s="123"/>
+      <c r="E62" s="123"/>
+      <c r="G62" s="54">
         <f>VLOOKUP(C7,C1:E11,3,0)</f>
         <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="65"/>
+      <c r="A63" s="45"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -10766,6 +10676,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:H28"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="E55:F55"/>
     <mergeCell ref="A60:E60"/>
@@ -10774,14 +10692,6 @@
     <mergeCell ref="A40:I41"/>
     <mergeCell ref="A53:D53"/>
     <mergeCell ref="E53:F53"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A20:H20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -10792,8 +10702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389E6A1E-82E0-4513-A8C4-08B452F4C122}">
   <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10842,29 +10752,29 @@
       <c r="D2" s="41" t="s">
         <v>306</v>
       </c>
-      <c r="E2" s="128">
+      <c r="E2" s="94">
         <v>3419</v>
       </c>
-      <c r="F2" s="128">
+      <c r="F2" s="94">
         <v>4378</v>
       </c>
-      <c r="G2" s="129">
+      <c r="G2" s="95">
         <v>2755</v>
       </c>
-      <c r="I2" s="89" t="s">
+      <c r="I2" s="55" t="s">
         <v>418</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="63"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="44"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="36">
@@ -10879,28 +10789,26 @@
       <c r="D3" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="E3" s="128">
+      <c r="E3" s="94">
         <v>1492</v>
       </c>
-      <c r="F3" s="128">
+      <c r="F3" s="94">
         <v>2126</v>
       </c>
-      <c r="G3" s="129">
+      <c r="G3" s="95">
         <v>2103</v>
       </c>
-      <c r="I3" s="66"/>
-      <c r="J3" s="146" t="s">
+      <c r="I3" s="46"/>
+      <c r="J3" s="144" t="s">
         <v>414</v>
       </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="123"/>
+      <c r="Q3" s="123"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -10916,26 +10824,25 @@
       <c r="D4" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="E4" s="128">
+      <c r="E4" s="94">
         <v>1371</v>
       </c>
-      <c r="F4" s="128">
+      <c r="F4" s="94">
         <v>1930</v>
       </c>
-      <c r="G4" s="129">
+      <c r="G4" s="95">
         <v>1823</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="131">
+      <c r="I4" s="46"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="123"/>
+      <c r="Q4" s="123"/>
+      <c r="S4" s="96">
         <f>SUM(B2:B91)</f>
         <v>72741.76999999996</v>
       </c>
@@ -10954,26 +10861,24 @@
       <c r="D5" s="41" t="s">
         <v>309</v>
       </c>
-      <c r="E5" s="128">
+      <c r="E5" s="94">
         <v>1607</v>
       </c>
-      <c r="F5" s="128">
+      <c r="F5" s="94">
         <v>2133</v>
       </c>
-      <c r="G5" s="129">
+      <c r="G5" s="95">
         <v>2102</v>
       </c>
-      <c r="I5" s="66"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123"/>
+      <c r="N5" s="123"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="123"/>
+      <c r="Q5" s="123"/>
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -10989,26 +10894,24 @@
       <c r="D6" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="E6" s="128">
+      <c r="E6" s="94">
         <v>951</v>
       </c>
-      <c r="F6" s="128">
+      <c r="F6" s="94">
         <v>1445</v>
       </c>
-      <c r="G6" s="129">
+      <c r="G6" s="95">
         <v>1416</v>
       </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="123"/>
+      <c r="Q6" s="123"/>
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11024,16 +10927,16 @@
       <c r="D7" s="41" t="s">
         <v>311</v>
       </c>
-      <c r="E7" s="128">
+      <c r="E7" s="94">
         <v>889</v>
       </c>
-      <c r="F7" s="128">
+      <c r="F7" s="94">
         <v>1293</v>
       </c>
-      <c r="G7" s="129">
+      <c r="G7" s="95">
         <v>1526</v>
       </c>
-      <c r="I7" s="65"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -11059,13 +10962,13 @@
       <c r="D8" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="E8" s="128">
+      <c r="E8" s="94">
         <v>1254</v>
       </c>
-      <c r="F8" s="128">
+      <c r="F8" s="94">
         <v>1989</v>
       </c>
-      <c r="G8" s="129">
+      <c r="G8" s="95">
         <v>1685</v>
       </c>
     </row>
@@ -11082,24 +10985,24 @@
       <c r="D9" s="41" t="s">
         <v>313</v>
       </c>
-      <c r="E9" s="128">
+      <c r="E9" s="94">
         <v>1025</v>
       </c>
-      <c r="F9" s="128">
+      <c r="F9" s="94">
         <v>1362</v>
       </c>
-      <c r="G9" s="129">
+      <c r="G9" s="95">
         <v>2077</v>
       </c>
-      <c r="I9" s="61"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="63"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="44"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="36">
@@ -11114,25 +11017,18 @@
       <c r="D10" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E10" s="128">
+      <c r="E10" s="94">
         <v>1194</v>
       </c>
-      <c r="F10" s="128">
+      <c r="F10" s="94">
         <v>2016</v>
       </c>
-      <c r="G10" s="129">
+      <c r="G10" s="95">
         <v>1452</v>
       </c>
-      <c r="I10" s="151" t="s">
+      <c r="I10" s="99" t="s">
         <v>419</v>
       </c>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -11148,24 +11044,24 @@
       <c r="D11" s="41" t="s">
         <v>315</v>
       </c>
-      <c r="E11" s="128">
+      <c r="E11" s="94">
         <v>607</v>
       </c>
-      <c r="F11" s="128">
+      <c r="F11" s="94">
         <v>853</v>
       </c>
-      <c r="G11" s="129">
+      <c r="G11" s="95">
         <v>1022</v>
       </c>
-      <c r="I11" s="66"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="130"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="145"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="145"/>
+      <c r="M11" s="145"/>
+      <c r="N11" s="145"/>
+      <c r="O11" s="145"/>
+      <c r="P11" s="145"/>
+      <c r="Q11" s="146"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="36">
@@ -11180,23 +11076,16 @@
       <c r="D12" s="41" t="s">
         <v>316</v>
       </c>
-      <c r="E12" s="128">
+      <c r="E12" s="94">
         <v>626</v>
       </c>
-      <c r="F12" s="128">
+      <c r="F12" s="94">
         <v>1569</v>
       </c>
-      <c r="G12" s="129">
+      <c r="G12" s="95">
         <v>1033</v>
       </c>
-      <c r="I12" s="66"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
+      <c r="I12" s="46"/>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -11212,23 +11101,16 @@
       <c r="D13" s="41" t="s">
         <v>317</v>
       </c>
-      <c r="E13" s="128">
+      <c r="E13" s="94">
         <v>1037</v>
       </c>
-      <c r="F13" s="128">
+      <c r="F13" s="94">
         <v>2300</v>
       </c>
-      <c r="G13" s="129">
+      <c r="G13" s="95">
         <v>1598</v>
       </c>
-      <c r="I13" s="66"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
+      <c r="I13" s="46"/>
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -11244,27 +11126,24 @@
       <c r="D14" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="E14" s="128">
+      <c r="E14" s="94">
         <v>972</v>
       </c>
-      <c r="F14" s="128">
+      <c r="F14" s="94">
         <v>2128</v>
       </c>
-      <c r="G14" s="129">
+      <c r="G14" s="95">
         <v>912</v>
       </c>
-      <c r="I14" s="66"/>
-      <c r="J14" s="140" t="s">
+      <c r="I14" s="46"/>
+      <c r="J14" s="147" t="s">
         <v>420</v>
       </c>
-      <c r="K14" s="141"/>
+      <c r="K14" s="148"/>
       <c r="L14" s="142" t="s">
         <v>303</v>
       </c>
       <c r="M14" s="142"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -11280,28 +11159,25 @@
       <c r="D15" s="41" t="s">
         <v>319</v>
       </c>
-      <c r="E15" s="128">
+      <c r="E15" s="94">
         <v>88</v>
       </c>
-      <c r="F15" s="128">
+      <c r="F15" s="94">
         <v>1159</v>
       </c>
-      <c r="G15" s="129">
+      <c r="G15" s="95">
         <v>0</v>
       </c>
-      <c r="I15" s="66"/>
-      <c r="J15" s="71" t="s">
+      <c r="I15" s="46"/>
+      <c r="J15" s="131" t="s">
         <v>421</v>
       </c>
-      <c r="K15" s="71"/>
-      <c r="L15" s="143">
+      <c r="K15" s="131"/>
+      <c r="L15" s="149">
         <f>SUM(E2:E91)</f>
         <v>58005</v>
       </c>
-      <c r="M15" s="143"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
+      <c r="M15" s="149"/>
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -11317,23 +11193,16 @@
       <c r="D16" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="E16" s="128">
+      <c r="E16" s="94">
         <v>2052</v>
       </c>
-      <c r="F16" s="128">
+      <c r="F16" s="94">
         <v>2159</v>
       </c>
-      <c r="G16" s="129">
+      <c r="G16" s="95">
         <v>1582</v>
       </c>
-      <c r="I16" s="66"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
+      <c r="I16" s="46"/>
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -11349,27 +11218,24 @@
       <c r="D17" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="E17" s="128">
+      <c r="E17" s="94">
         <v>1582</v>
       </c>
-      <c r="F17" s="128">
+      <c r="F17" s="94">
         <v>2308</v>
       </c>
-      <c r="G17" s="129">
+      <c r="G17" s="95">
         <v>1699</v>
       </c>
-      <c r="I17" s="66"/>
-      <c r="J17" s="144" t="s">
+      <c r="I17" s="46"/>
+      <c r="J17" s="134" t="s">
         <v>420</v>
       </c>
-      <c r="K17" s="144"/>
+      <c r="K17" s="134"/>
       <c r="L17" s="142" t="s">
         <v>304</v>
       </c>
       <c r="M17" s="142"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -11385,28 +11251,25 @@
       <c r="D18" s="41" t="s">
         <v>322</v>
       </c>
-      <c r="E18" s="128">
+      <c r="E18" s="94">
         <v>1088</v>
       </c>
-      <c r="F18" s="128">
+      <c r="F18" s="94">
         <v>1218</v>
       </c>
-      <c r="G18" s="129">
+      <c r="G18" s="95">
         <v>981</v>
       </c>
-      <c r="I18" s="66"/>
-      <c r="J18" s="147" t="s">
+      <c r="I18" s="46"/>
+      <c r="J18" s="135" t="s">
         <v>421</v>
       </c>
-      <c r="K18" s="148"/>
-      <c r="L18" s="143">
+      <c r="K18" s="136"/>
+      <c r="L18" s="149">
         <f>SUM(F2:F91)</f>
         <v>130000</v>
       </c>
-      <c r="M18" s="143"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
+      <c r="M18" s="149"/>
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -11422,23 +11285,16 @@
       <c r="D19" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="E19" s="128">
+      <c r="E19" s="94">
         <v>706</v>
       </c>
-      <c r="F19" s="128">
+      <c r="F19" s="94">
         <v>1151</v>
       </c>
-      <c r="G19" s="129">
+      <c r="G19" s="95">
         <v>1145</v>
       </c>
-      <c r="I19" s="66"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
+      <c r="I19" s="46"/>
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -11454,27 +11310,24 @@
       <c r="D20" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="E20" s="128">
+      <c r="E20" s="94">
         <v>1335</v>
       </c>
-      <c r="F20" s="128">
+      <c r="F20" s="94">
         <v>2098</v>
       </c>
-      <c r="G20" s="129">
+      <c r="G20" s="95">
         <v>1322</v>
       </c>
-      <c r="I20" s="66"/>
-      <c r="J20" s="144" t="s">
+      <c r="I20" s="46"/>
+      <c r="J20" s="134" t="s">
         <v>420</v>
       </c>
-      <c r="K20" s="144"/>
+      <c r="K20" s="134"/>
       <c r="L20" s="142" t="s">
         <v>422</v>
       </c>
       <c r="M20" s="142"/>
-      <c r="N20" s="67"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="67"/>
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -11490,28 +11343,25 @@
       <c r="D21" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="E21" s="128">
+      <c r="E21" s="94">
         <v>702</v>
       </c>
-      <c r="F21" s="128">
+      <c r="F21" s="94">
         <v>1162</v>
       </c>
-      <c r="G21" s="129">
+      <c r="G21" s="95">
         <v>877</v>
       </c>
-      <c r="I21" s="66"/>
-      <c r="J21" s="149" t="s">
+      <c r="I21" s="46"/>
+      <c r="J21" s="143" t="s">
         <v>421</v>
       </c>
-      <c r="K21" s="149"/>
-      <c r="L21" s="145">
+      <c r="K21" s="143"/>
+      <c r="L21" s="150">
         <f>SUM(G2:G91)</f>
         <v>76758</v>
       </c>
-      <c r="M21" s="145"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
+      <c r="M21" s="150"/>
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -11527,23 +11377,16 @@
       <c r="D22" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="E22" s="128">
+      <c r="E22" s="94">
         <v>968</v>
       </c>
-      <c r="F22" s="128">
+      <c r="F22" s="94">
         <v>1101</v>
       </c>
-      <c r="G22" s="129">
+      <c r="G22" s="95">
         <v>797</v>
       </c>
-      <c r="I22" s="66"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="67"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
+      <c r="I22" s="46"/>
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11559,23 +11402,16 @@
       <c r="D23" s="41" t="s">
         <v>327</v>
       </c>
-      <c r="E23" s="128">
+      <c r="E23" s="94">
         <v>1664</v>
       </c>
-      <c r="F23" s="128">
+      <c r="F23" s="94">
         <v>2069</v>
       </c>
-      <c r="G23" s="129">
+      <c r="G23" s="95">
         <v>1710</v>
       </c>
-      <c r="I23" s="66"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
+      <c r="I23" s="46"/>
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11591,26 +11427,26 @@
       <c r="D24" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="E24" s="128">
+      <c r="E24" s="94">
         <v>624</v>
       </c>
-      <c r="F24" s="128">
+      <c r="F24" s="94">
         <v>770</v>
       </c>
-      <c r="G24" s="129">
+      <c r="G24" s="95">
         <v>746</v>
       </c>
-      <c r="I24" s="66"/>
-      <c r="J24" s="79" t="s">
+      <c r="I24" s="46"/>
+      <c r="J24" s="123" t="s">
         <v>423</v>
       </c>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="150"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="123"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="123"/>
+      <c r="Q24" s="137"/>
     </row>
     <row r="25" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="36">
@@ -11625,26 +11461,21 @@
       <c r="D25" s="41" t="s">
         <v>329</v>
       </c>
-      <c r="E25" s="128">
+      <c r="E25" s="94">
         <v>685</v>
       </c>
-      <c r="F25" s="128">
+      <c r="F25" s="94">
         <v>1501</v>
       </c>
-      <c r="G25" s="129">
+      <c r="G25" s="95">
         <v>1126</v>
       </c>
-      <c r="I25" s="66"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="132">
+      <c r="I25" s="46"/>
+      <c r="N25" s="138">
         <f>SUM(E4:G4)</f>
         <v>5124</v>
       </c>
-      <c r="O25" s="133"/>
-      <c r="P25" s="67"/>
+      <c r="O25" s="139"/>
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -11660,23 +11491,16 @@
       <c r="D26" s="41" t="s">
         <v>330</v>
       </c>
-      <c r="E26" s="128">
+      <c r="E26" s="94">
         <v>1248</v>
       </c>
-      <c r="F26" s="128">
+      <c r="F26" s="94">
         <v>1763</v>
       </c>
-      <c r="G26" s="129">
+      <c r="G26" s="95">
         <v>1146</v>
       </c>
-      <c r="I26" s="66"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
+      <c r="I26" s="46"/>
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11692,26 +11516,26 @@
       <c r="D27" s="41" t="s">
         <v>331</v>
       </c>
-      <c r="E27" s="128">
+      <c r="E27" s="94">
         <v>1342</v>
       </c>
-      <c r="F27" s="128">
+      <c r="F27" s="94">
         <v>1559</v>
       </c>
-      <c r="G27" s="129">
+      <c r="G27" s="95">
         <v>1307</v>
       </c>
-      <c r="I27" s="66"/>
-      <c r="J27" s="79" t="s">
+      <c r="I27" s="46"/>
+      <c r="J27" s="123" t="s">
         <v>424</v>
       </c>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="79"/>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="150"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="123"/>
+      <c r="N27" s="123"/>
+      <c r="O27" s="123"/>
+      <c r="P27" s="123"/>
+      <c r="Q27" s="137"/>
     </row>
     <row r="28" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="36">
@@ -11726,26 +11550,21 @@
       <c r="D28" s="41" t="s">
         <v>332</v>
       </c>
-      <c r="E28" s="128">
+      <c r="E28" s="94">
         <v>760</v>
       </c>
-      <c r="F28" s="128">
+      <c r="F28" s="94">
         <v>965</v>
       </c>
-      <c r="G28" s="129">
+      <c r="G28" s="95">
         <v>921</v>
       </c>
-      <c r="I28" s="66"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="132">
+      <c r="I28" s="46"/>
+      <c r="N28" s="138">
         <f>SUM(E2:E21)+SUM(F2:F21)+SUM(G2:G21)</f>
         <v>89884</v>
       </c>
-      <c r="O28" s="133"/>
-      <c r="P28" s="67"/>
+      <c r="O28" s="139"/>
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -11761,23 +11580,16 @@
       <c r="D29" s="41" t="s">
         <v>333</v>
       </c>
-      <c r="E29" s="128">
+      <c r="E29" s="94">
         <v>1187</v>
       </c>
-      <c r="F29" s="128">
+      <c r="F29" s="94">
         <v>1568</v>
       </c>
-      <c r="G29" s="129">
+      <c r="G29" s="95">
         <v>1190</v>
       </c>
-      <c r="I29" s="66"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="67"/>
+      <c r="I29" s="46"/>
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11793,26 +11605,26 @@
       <c r="D30" s="41" t="s">
         <v>334</v>
       </c>
-      <c r="E30" s="128">
+      <c r="E30" s="94">
         <v>0</v>
       </c>
-      <c r="F30" s="128">
+      <c r="F30" s="94">
         <v>0</v>
       </c>
-      <c r="G30" s="129">
+      <c r="G30" s="95">
         <v>277</v>
       </c>
-      <c r="I30" s="66"/>
-      <c r="J30" s="79" t="s">
+      <c r="I30" s="46"/>
+      <c r="J30" s="123" t="s">
         <v>425</v>
       </c>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="79"/>
-      <c r="Q30" s="150"/>
+      <c r="K30" s="123"/>
+      <c r="L30" s="123"/>
+      <c r="M30" s="123"/>
+      <c r="N30" s="123"/>
+      <c r="O30" s="123"/>
+      <c r="P30" s="123"/>
+      <c r="Q30" s="137"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="36">
@@ -11827,28 +11639,24 @@
       <c r="D31" s="41" t="s">
         <v>335</v>
       </c>
-      <c r="E31" s="128">
+      <c r="E31" s="94">
         <v>368</v>
       </c>
-      <c r="F31" s="128">
+      <c r="F31" s="94">
         <v>1386</v>
       </c>
-      <c r="G31" s="129">
+      <c r="G31" s="95">
         <v>637</v>
       </c>
-      <c r="I31" s="66"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="134" t="s">
+      <c r="I31" s="46"/>
+      <c r="M31" s="97" t="s">
         <v>426</v>
       </c>
-      <c r="N31" s="135">
+      <c r="N31" s="140">
         <f>SUM(E2:E91)</f>
         <v>58005</v>
       </c>
-      <c r="O31" s="136"/>
-      <c r="P31" s="67"/>
+      <c r="O31" s="141"/>
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11864,28 +11672,24 @@
       <c r="D32" s="41" t="s">
         <v>336</v>
       </c>
-      <c r="E32" s="128">
+      <c r="E32" s="94">
         <v>317</v>
       </c>
-      <c r="F32" s="128">
+      <c r="F32" s="94">
         <v>1215</v>
       </c>
-      <c r="G32" s="129">
+      <c r="G32" s="95">
         <v>478</v>
       </c>
-      <c r="I32" s="66"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="67"/>
-      <c r="M32" s="137" t="s">
+      <c r="I32" s="46"/>
+      <c r="M32" s="98" t="s">
         <v>427</v>
       </c>
-      <c r="N32" s="138">
+      <c r="N32" s="132">
         <f>SUM(G2:G91)</f>
         <v>76758</v>
       </c>
-      <c r="O32" s="139"/>
-      <c r="P32" s="67"/>
+      <c r="O32" s="133"/>
       <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -11901,23 +11705,16 @@
       <c r="D33" s="41" t="s">
         <v>337</v>
       </c>
-      <c r="E33" s="128">
+      <c r="E33" s="94">
         <v>689</v>
       </c>
-      <c r="F33" s="128">
+      <c r="F33" s="94">
         <v>2544</v>
       </c>
-      <c r="G33" s="129">
+      <c r="G33" s="95">
         <v>1009</v>
       </c>
-      <c r="I33" s="66"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="67"/>
+      <c r="I33" s="46"/>
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11933,16 +11730,16 @@
       <c r="D34" s="41" t="s">
         <v>338</v>
       </c>
-      <c r="E34" s="128">
+      <c r="E34" s="94">
         <v>510</v>
       </c>
-      <c r="F34" s="128">
+      <c r="F34" s="94">
         <v>2583</v>
       </c>
-      <c r="G34" s="129">
+      <c r="G34" s="95">
         <v>861</v>
       </c>
-      <c r="I34" s="65"/>
+      <c r="I34" s="45"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -11965,13 +11762,13 @@
       <c r="D35" s="41" t="s">
         <v>339</v>
       </c>
-      <c r="E35" s="128">
+      <c r="E35" s="94">
         <v>257</v>
       </c>
-      <c r="F35" s="128">
+      <c r="F35" s="94">
         <v>1023</v>
       </c>
-      <c r="G35" s="129">
+      <c r="G35" s="95">
         <v>446</v>
       </c>
     </row>
@@ -11988,13 +11785,13 @@
       <c r="D36" s="41" t="s">
         <v>340</v>
       </c>
-      <c r="E36" s="128">
+      <c r="E36" s="94">
         <v>335</v>
       </c>
-      <c r="F36" s="128">
+      <c r="F36" s="94">
         <v>1225</v>
       </c>
-      <c r="G36" s="129">
+      <c r="G36" s="95">
         <v>520</v>
       </c>
     </row>
@@ -12011,13 +11808,13 @@
       <c r="D37" s="41" t="s">
         <v>341</v>
       </c>
-      <c r="E37" s="128">
+      <c r="E37" s="94">
         <v>264</v>
       </c>
-      <c r="F37" s="128">
+      <c r="F37" s="94">
         <v>957</v>
       </c>
-      <c r="G37" s="129">
+      <c r="G37" s="95">
         <v>405</v>
       </c>
     </row>
@@ -12034,13 +11831,13 @@
       <c r="D38" s="41" t="s">
         <v>342</v>
       </c>
-      <c r="E38" s="128">
+      <c r="E38" s="94">
         <v>285</v>
       </c>
-      <c r="F38" s="128">
+      <c r="F38" s="94">
         <v>869</v>
       </c>
-      <c r="G38" s="129">
+      <c r="G38" s="95">
         <v>434</v>
       </c>
     </row>
@@ -12057,13 +11854,13 @@
       <c r="D39" s="41" t="s">
         <v>343</v>
       </c>
-      <c r="E39" s="128">
+      <c r="E39" s="94">
         <v>550</v>
       </c>
-      <c r="F39" s="128">
+      <c r="F39" s="94">
         <v>2502</v>
       </c>
-      <c r="G39" s="129">
+      <c r="G39" s="95">
         <v>822</v>
       </c>
     </row>
@@ -12080,13 +11877,13 @@
       <c r="D40" s="41" t="s">
         <v>344</v>
       </c>
-      <c r="E40" s="128">
+      <c r="E40" s="94">
         <v>266</v>
       </c>
-      <c r="F40" s="128">
+      <c r="F40" s="94">
         <v>1382</v>
       </c>
-      <c r="G40" s="129">
+      <c r="G40" s="95">
         <v>501</v>
       </c>
     </row>
@@ -12103,13 +11900,13 @@
       <c r="D41" s="41" t="s">
         <v>345</v>
       </c>
-      <c r="E41" s="128">
+      <c r="E41" s="94">
         <v>598</v>
       </c>
-      <c r="F41" s="128">
+      <c r="F41" s="94">
         <v>2107</v>
       </c>
-      <c r="G41" s="129">
+      <c r="G41" s="95">
         <v>1002</v>
       </c>
     </row>
@@ -12126,13 +11923,13 @@
       <c r="D42" s="41" t="s">
         <v>346</v>
       </c>
-      <c r="E42" s="128">
+      <c r="E42" s="94">
         <v>344</v>
       </c>
-      <c r="F42" s="128">
+      <c r="F42" s="94">
         <v>1641</v>
       </c>
-      <c r="G42" s="129">
+      <c r="G42" s="95">
         <v>765</v>
       </c>
     </row>
@@ -12149,13 +11946,13 @@
       <c r="D43" s="41" t="s">
         <v>347</v>
       </c>
-      <c r="E43" s="128">
+      <c r="E43" s="94">
         <v>183</v>
       </c>
-      <c r="F43" s="128">
+      <c r="F43" s="94">
         <v>867</v>
       </c>
-      <c r="G43" s="129">
+      <c r="G43" s="95">
         <v>384</v>
       </c>
     </row>
@@ -12172,13 +11969,13 @@
       <c r="D44" s="41" t="s">
         <v>348</v>
       </c>
-      <c r="E44" s="128">
+      <c r="E44" s="94">
         <v>302</v>
       </c>
-      <c r="F44" s="128">
+      <c r="F44" s="94">
         <v>1326</v>
       </c>
-      <c r="G44" s="129">
+      <c r="G44" s="95">
         <v>586</v>
       </c>
     </row>
@@ -12195,13 +11992,13 @@
       <c r="D45" s="41" t="s">
         <v>349</v>
       </c>
-      <c r="E45" s="128">
+      <c r="E45" s="94">
         <v>177</v>
       </c>
-      <c r="F45" s="128">
+      <c r="F45" s="94">
         <v>823</v>
       </c>
-      <c r="G45" s="129">
+      <c r="G45" s="95">
         <v>548</v>
       </c>
     </row>
@@ -12218,13 +12015,13 @@
       <c r="D46" s="41" t="s">
         <v>350</v>
       </c>
-      <c r="E46" s="128">
+      <c r="E46" s="94">
         <v>285</v>
       </c>
-      <c r="F46" s="128">
+      <c r="F46" s="94">
         <v>1249</v>
       </c>
-      <c r="G46" s="129">
+      <c r="G46" s="95">
         <v>533</v>
       </c>
     </row>
@@ -12241,13 +12038,13 @@
       <c r="D47" s="41" t="s">
         <v>351</v>
       </c>
-      <c r="E47" s="128">
+      <c r="E47" s="94">
         <v>236</v>
       </c>
-      <c r="F47" s="128">
+      <c r="F47" s="94">
         <v>1162</v>
       </c>
-      <c r="G47" s="129">
+      <c r="G47" s="95">
         <v>402</v>
       </c>
     </row>
@@ -12264,13 +12061,13 @@
       <c r="D48" s="41" t="s">
         <v>352</v>
       </c>
-      <c r="E48" s="128">
+      <c r="E48" s="94">
         <v>293</v>
       </c>
-      <c r="F48" s="128">
+      <c r="F48" s="94">
         <v>1016</v>
       </c>
-      <c r="G48" s="129">
+      <c r="G48" s="95">
         <v>585</v>
       </c>
     </row>
@@ -12287,13 +12084,13 @@
       <c r="D49" s="41" t="s">
         <v>353</v>
       </c>
-      <c r="E49" s="128">
+      <c r="E49" s="94">
         <v>242</v>
       </c>
-      <c r="F49" s="128">
+      <c r="F49" s="94">
         <v>1363</v>
       </c>
-      <c r="G49" s="129">
+      <c r="G49" s="95">
         <v>428</v>
       </c>
     </row>
@@ -12310,13 +12107,13 @@
       <c r="D50" s="41" t="s">
         <v>354</v>
       </c>
-      <c r="E50" s="128">
+      <c r="E50" s="94">
         <v>248</v>
       </c>
-      <c r="F50" s="128">
+      <c r="F50" s="94">
         <v>1398</v>
       </c>
-      <c r="G50" s="129">
+      <c r="G50" s="95">
         <v>476</v>
       </c>
     </row>
@@ -12333,13 +12130,13 @@
       <c r="D51" s="41" t="s">
         <v>355</v>
       </c>
-      <c r="E51" s="128">
+      <c r="E51" s="94">
         <v>292</v>
       </c>
-      <c r="F51" s="128">
+      <c r="F51" s="94">
         <v>1380</v>
       </c>
-      <c r="G51" s="129">
+      <c r="G51" s="95">
         <v>456</v>
       </c>
     </row>
@@ -12356,13 +12153,13 @@
       <c r="D52" s="41" t="s">
         <v>356</v>
       </c>
-      <c r="E52" s="128">
+      <c r="E52" s="94">
         <v>196</v>
       </c>
-      <c r="F52" s="128">
+      <c r="F52" s="94">
         <v>1238</v>
       </c>
-      <c r="G52" s="129">
+      <c r="G52" s="95">
         <v>493</v>
       </c>
     </row>
@@ -12379,13 +12176,13 @@
       <c r="D53" s="41" t="s">
         <v>357</v>
       </c>
-      <c r="E53" s="128">
+      <c r="E53" s="94">
         <v>432</v>
       </c>
-      <c r="F53" s="128">
+      <c r="F53" s="94">
         <v>1216</v>
       </c>
-      <c r="G53" s="129">
+      <c r="G53" s="95">
         <v>552</v>
       </c>
     </row>
@@ -12402,13 +12199,13 @@
       <c r="D54" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="E54" s="128">
+      <c r="E54" s="94">
         <v>420</v>
       </c>
-      <c r="F54" s="128">
+      <c r="F54" s="94">
         <v>1581</v>
       </c>
-      <c r="G54" s="129">
+      <c r="G54" s="95">
         <v>525</v>
       </c>
     </row>
@@ -12425,13 +12222,13 @@
       <c r="D55" s="41" t="s">
         <v>359</v>
       </c>
-      <c r="E55" s="128">
+      <c r="E55" s="94">
         <v>398</v>
       </c>
-      <c r="F55" s="128">
+      <c r="F55" s="94">
         <v>1759</v>
       </c>
-      <c r="G55" s="129">
+      <c r="G55" s="95">
         <v>682</v>
       </c>
     </row>
@@ -12448,13 +12245,13 @@
       <c r="D56" s="41" t="s">
         <v>360</v>
       </c>
-      <c r="E56" s="128">
+      <c r="E56" s="94">
         <v>128</v>
       </c>
-      <c r="F56" s="128">
+      <c r="F56" s="94">
         <v>791</v>
       </c>
-      <c r="G56" s="129">
+      <c r="G56" s="95">
         <v>242</v>
       </c>
     </row>
@@ -12471,13 +12268,13 @@
       <c r="D57" s="41" t="s">
         <v>361</v>
       </c>
-      <c r="E57" s="128">
+      <c r="E57" s="94">
         <v>225</v>
       </c>
-      <c r="F57" s="128">
+      <c r="F57" s="94">
         <v>935</v>
       </c>
-      <c r="G57" s="129">
+      <c r="G57" s="95">
         <v>432</v>
       </c>
     </row>
@@ -12494,13 +12291,13 @@
       <c r="D58" s="41" t="s">
         <v>362</v>
       </c>
-      <c r="E58" s="128">
+      <c r="E58" s="94">
         <v>1358</v>
       </c>
-      <c r="F58" s="128">
+      <c r="F58" s="94">
         <v>2231</v>
       </c>
-      <c r="G58" s="129">
+      <c r="G58" s="95">
         <v>1391</v>
       </c>
     </row>
@@ -12517,13 +12314,13 @@
       <c r="D59" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="E59" s="128">
+      <c r="E59" s="94">
         <v>1345</v>
       </c>
-      <c r="F59" s="128">
+      <c r="F59" s="94">
         <v>1791</v>
       </c>
-      <c r="G59" s="129">
+      <c r="G59" s="95">
         <v>1460</v>
       </c>
     </row>
@@ -12540,13 +12337,13 @@
       <c r="D60" s="41" t="s">
         <v>364</v>
       </c>
-      <c r="E60" s="128">
+      <c r="E60" s="94">
         <v>769</v>
       </c>
-      <c r="F60" s="128">
+      <c r="F60" s="94">
         <v>1948</v>
       </c>
-      <c r="G60" s="129">
+      <c r="G60" s="95">
         <v>1011</v>
       </c>
     </row>
@@ -12563,13 +12360,13 @@
       <c r="D61" s="41" t="s">
         <v>365</v>
       </c>
-      <c r="E61" s="128">
+      <c r="E61" s="94">
         <v>560</v>
       </c>
-      <c r="F61" s="128">
+      <c r="F61" s="94">
         <v>1835</v>
       </c>
-      <c r="G61" s="129">
+      <c r="G61" s="95">
         <v>642</v>
       </c>
     </row>
@@ -12586,13 +12383,13 @@
       <c r="D62" s="41" t="s">
         <v>366</v>
       </c>
-      <c r="E62" s="128">
+      <c r="E62" s="94">
         <v>836</v>
       </c>
-      <c r="F62" s="128">
+      <c r="F62" s="94">
         <v>2245</v>
       </c>
-      <c r="G62" s="129">
+      <c r="G62" s="95">
         <v>861</v>
       </c>
     </row>
@@ -12609,13 +12406,13 @@
       <c r="D63" s="41" t="s">
         <v>367</v>
       </c>
-      <c r="E63" s="128">
+      <c r="E63" s="94">
         <v>587</v>
       </c>
-      <c r="F63" s="128">
+      <c r="F63" s="94">
         <v>1471</v>
       </c>
-      <c r="G63" s="129">
+      <c r="G63" s="95">
         <v>623</v>
       </c>
     </row>
@@ -12632,13 +12429,13 @@
       <c r="D64" s="41" t="s">
         <v>368</v>
       </c>
-      <c r="E64" s="128">
+      <c r="E64" s="94">
         <v>774</v>
       </c>
-      <c r="F64" s="128">
+      <c r="F64" s="94">
         <v>1403</v>
       </c>
-      <c r="G64" s="129">
+      <c r="G64" s="95">
         <v>1085</v>
       </c>
     </row>
@@ -12655,13 +12452,13 @@
       <c r="D65" s="41" t="s">
         <v>369</v>
       </c>
-      <c r="E65" s="128">
+      <c r="E65" s="94">
         <v>757</v>
       </c>
-      <c r="F65" s="128">
+      <c r="F65" s="94">
         <v>1203</v>
       </c>
-      <c r="G65" s="129">
+      <c r="G65" s="95">
         <v>1175</v>
       </c>
     </row>
@@ -12678,13 +12475,13 @@
       <c r="D66" s="41" t="s">
         <v>370</v>
       </c>
-      <c r="E66" s="128">
+      <c r="E66" s="94">
         <v>591</v>
       </c>
-      <c r="F66" s="128">
+      <c r="F66" s="94">
         <v>1439</v>
       </c>
-      <c r="G66" s="129">
+      <c r="G66" s="95">
         <v>858</v>
       </c>
     </row>
@@ -12701,13 +12498,13 @@
       <c r="D67" s="41" t="s">
         <v>371</v>
       </c>
-      <c r="E67" s="128">
+      <c r="E67" s="94">
         <v>457</v>
       </c>
-      <c r="F67" s="128">
+      <c r="F67" s="94">
         <v>1161</v>
       </c>
-      <c r="G67" s="129">
+      <c r="G67" s="95">
         <v>594</v>
       </c>
     </row>
@@ -12724,13 +12521,13 @@
       <c r="D68" s="41" t="s">
         <v>372</v>
       </c>
-      <c r="E68" s="128">
+      <c r="E68" s="94">
         <v>494</v>
       </c>
-      <c r="F68" s="128">
+      <c r="F68" s="94">
         <v>1585</v>
       </c>
-      <c r="G68" s="129">
+      <c r="G68" s="95">
         <v>705</v>
       </c>
     </row>
@@ -12747,13 +12544,13 @@
       <c r="D69" s="41" t="s">
         <v>373</v>
       </c>
-      <c r="E69" s="128">
+      <c r="E69" s="94">
         <v>914</v>
       </c>
-      <c r="F69" s="128">
+      <c r="F69" s="94">
         <v>1727</v>
       </c>
-      <c r="G69" s="129">
+      <c r="G69" s="95">
         <v>1308</v>
       </c>
     </row>
@@ -12770,13 +12567,13 @@
       <c r="D70" s="41" t="s">
         <v>374</v>
       </c>
-      <c r="E70" s="128">
+      <c r="E70" s="94">
         <v>581</v>
       </c>
-      <c r="F70" s="128">
+      <c r="F70" s="94">
         <v>1448</v>
       </c>
-      <c r="G70" s="129">
+      <c r="G70" s="95">
         <v>885</v>
       </c>
     </row>
@@ -12793,13 +12590,13 @@
       <c r="D71" s="41" t="s">
         <v>375</v>
       </c>
-      <c r="E71" s="128">
+      <c r="E71" s="94">
         <v>31</v>
       </c>
-      <c r="F71" s="128">
+      <c r="F71" s="94">
         <v>0</v>
       </c>
-      <c r="G71" s="129">
+      <c r="G71" s="95">
         <v>78</v>
       </c>
     </row>
@@ -12816,13 +12613,13 @@
       <c r="D72" s="41" t="s">
         <v>376</v>
       </c>
-      <c r="E72" s="128">
+      <c r="E72" s="94">
         <v>92</v>
       </c>
-      <c r="F72" s="128">
+      <c r="F72" s="94">
         <v>233</v>
       </c>
-      <c r="G72" s="129">
+      <c r="G72" s="95">
         <v>494</v>
       </c>
     </row>
@@ -12839,13 +12636,13 @@
       <c r="D73" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="E73" s="128">
+      <c r="E73" s="94">
         <v>486</v>
       </c>
-      <c r="F73" s="128">
+      <c r="F73" s="94">
         <v>1176</v>
       </c>
-      <c r="G73" s="129">
+      <c r="G73" s="95">
         <v>400</v>
       </c>
     </row>
@@ -12862,13 +12659,13 @@
       <c r="D74" s="41" t="s">
         <v>378</v>
       </c>
-      <c r="E74" s="128">
+      <c r="E74" s="94">
         <v>440</v>
       </c>
-      <c r="F74" s="128">
+      <c r="F74" s="94">
         <v>874</v>
       </c>
-      <c r="G74" s="129">
+      <c r="G74" s="95">
         <v>803</v>
       </c>
     </row>
@@ -12885,13 +12682,13 @@
       <c r="D75" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="E75" s="128">
+      <c r="E75" s="94">
         <v>127</v>
       </c>
-      <c r="F75" s="128">
+      <c r="F75" s="94">
         <v>695</v>
       </c>
-      <c r="G75" s="129">
+      <c r="G75" s="95">
         <v>440</v>
       </c>
     </row>
@@ -12908,13 +12705,13 @@
       <c r="D76" s="41" t="s">
         <v>380</v>
       </c>
-      <c r="E76" s="128">
+      <c r="E76" s="94">
         <v>257</v>
       </c>
-      <c r="F76" s="128">
+      <c r="F76" s="94">
         <v>1367</v>
       </c>
-      <c r="G76" s="129">
+      <c r="G76" s="95">
         <v>544</v>
       </c>
     </row>
@@ -12931,13 +12728,13 @@
       <c r="D77" s="41" t="s">
         <v>381</v>
       </c>
-      <c r="E77" s="128">
+      <c r="E77" s="94">
         <v>399</v>
       </c>
-      <c r="F77" s="128">
+      <c r="F77" s="94">
         <v>1238</v>
       </c>
-      <c r="G77" s="129">
+      <c r="G77" s="95">
         <v>622</v>
       </c>
     </row>
@@ -12954,13 +12751,13 @@
       <c r="D78" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="E78" s="128">
+      <c r="E78" s="94">
         <v>470</v>
       </c>
-      <c r="F78" s="128">
+      <c r="F78" s="94">
         <v>1609</v>
       </c>
-      <c r="G78" s="129">
+      <c r="G78" s="95">
         <v>662</v>
       </c>
     </row>
@@ -12977,13 +12774,13 @@
       <c r="D79" s="41" t="s">
         <v>383</v>
       </c>
-      <c r="E79" s="128">
+      <c r="E79" s="94">
         <v>651</v>
       </c>
-      <c r="F79" s="128">
+      <c r="F79" s="94">
         <v>2120</v>
       </c>
-      <c r="G79" s="129">
+      <c r="G79" s="95">
         <v>824</v>
       </c>
     </row>
@@ -13000,13 +12797,13 @@
       <c r="D80" s="41" t="s">
         <v>384</v>
       </c>
-      <c r="E80" s="128">
+      <c r="E80" s="94">
         <v>757</v>
       </c>
-      <c r="F80" s="128">
+      <c r="F80" s="94">
         <v>2498</v>
       </c>
-      <c r="G80" s="129">
+      <c r="G80" s="95">
         <v>846</v>
       </c>
     </row>
@@ -13023,13 +12820,13 @@
       <c r="D81" s="41" t="s">
         <v>385</v>
       </c>
-      <c r="E81" s="128">
+      <c r="E81" s="94">
         <v>526</v>
       </c>
-      <c r="F81" s="128">
+      <c r="F81" s="94">
         <v>1902</v>
       </c>
-      <c r="G81" s="129">
+      <c r="G81" s="95">
         <v>743</v>
       </c>
     </row>
@@ -13046,13 +12843,13 @@
       <c r="D82" s="41" t="s">
         <v>386</v>
       </c>
-      <c r="E82" s="128">
+      <c r="E82" s="94">
         <v>196</v>
       </c>
-      <c r="F82" s="128">
+      <c r="F82" s="94">
         <v>994</v>
       </c>
-      <c r="G82" s="129">
+      <c r="G82" s="95">
         <v>477</v>
       </c>
     </row>
@@ -13069,13 +12866,13 @@
       <c r="D83" s="41" t="s">
         <v>387</v>
       </c>
-      <c r="E83" s="128">
+      <c r="E83" s="94">
         <v>260</v>
       </c>
-      <c r="F83" s="128">
+      <c r="F83" s="94">
         <v>1010</v>
       </c>
-      <c r="G83" s="129">
+      <c r="G83" s="95">
         <v>575</v>
       </c>
     </row>
@@ -13092,13 +12889,13 @@
       <c r="D84" s="41" t="s">
         <v>388</v>
       </c>
-      <c r="E84" s="128">
+      <c r="E84" s="94">
         <v>192</v>
       </c>
-      <c r="F84" s="128">
+      <c r="F84" s="94">
         <v>899</v>
       </c>
-      <c r="G84" s="129">
+      <c r="G84" s="95">
         <v>369</v>
       </c>
     </row>
@@ -13115,13 +12912,13 @@
       <c r="D85" s="41" t="s">
         <v>389</v>
       </c>
-      <c r="E85" s="128">
+      <c r="E85" s="94">
         <v>177</v>
       </c>
-      <c r="F85" s="128">
+      <c r="F85" s="94">
         <v>284</v>
       </c>
-      <c r="G85" s="129">
+      <c r="G85" s="95">
         <v>174</v>
       </c>
     </row>
@@ -13138,13 +12935,13 @@
       <c r="D86" s="41" t="s">
         <v>390</v>
       </c>
-      <c r="E86" s="128">
+      <c r="E86" s="94">
         <v>741</v>
       </c>
-      <c r="F86" s="128">
+      <c r="F86" s="94">
         <v>1781</v>
       </c>
-      <c r="G86" s="129">
+      <c r="G86" s="95">
         <v>1028</v>
       </c>
     </row>
@@ -13161,13 +12958,13 @@
       <c r="D87" s="41" t="s">
         <v>391</v>
       </c>
-      <c r="E87" s="128">
+      <c r="E87" s="94">
         <v>174</v>
       </c>
-      <c r="F87" s="128">
+      <c r="F87" s="94">
         <v>773</v>
       </c>
-      <c r="G87" s="129">
+      <c r="G87" s="95">
         <v>237</v>
       </c>
     </row>
@@ -13184,13 +12981,13 @@
       <c r="D88" s="41" t="s">
         <v>392</v>
       </c>
-      <c r="E88" s="128">
+      <c r="E88" s="94">
         <v>94</v>
       </c>
-      <c r="F88" s="128">
+      <c r="F88" s="94">
         <v>769</v>
       </c>
-      <c r="G88" s="129">
+      <c r="G88" s="95">
         <v>228</v>
       </c>
     </row>
@@ -13207,13 +13004,13 @@
       <c r="D89" s="41" t="s">
         <v>393</v>
       </c>
-      <c r="E89" s="128">
+      <c r="E89" s="94">
         <v>197</v>
       </c>
-      <c r="F89" s="128">
+      <c r="F89" s="94">
         <v>837</v>
       </c>
-      <c r="G89" s="129">
+      <c r="G89" s="95">
         <v>434</v>
       </c>
     </row>
@@ -13230,13 +13027,13 @@
       <c r="D90" s="41" t="s">
         <v>394</v>
       </c>
-      <c r="E90" s="128">
+      <c r="E90" s="94">
         <v>318</v>
       </c>
-      <c r="F90" s="128">
+      <c r="F90" s="94">
         <v>1120</v>
       </c>
-      <c r="G90" s="129">
+      <c r="G90" s="95">
         <v>444</v>
       </c>
     </row>
@@ -13253,18 +13050,24 @@
       <c r="D91" s="41" t="s">
         <v>395</v>
       </c>
-      <c r="E91" s="128">
+      <c r="E91" s="94">
         <v>82</v>
       </c>
-      <c r="F91" s="128">
+      <c r="F91" s="94">
         <v>723</v>
       </c>
-      <c r="G91" s="129">
+      <c r="G91" s="95">
         <v>204</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="J3:Q6"/>
+    <mergeCell ref="J11:Q11"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
     <mergeCell ref="N32:O32"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="J18:K18"/>
@@ -13280,12 +13083,6 @@
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J3:Q6"/>
-    <mergeCell ref="J11:Q11"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13295,7 +13092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB264D5-E235-4E2F-B4F1-805810677AF5}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
